--- a/Figures and Tables for the Weighted Model_FINAL for members_Upload251021_Revised170222.xlsx
+++ b/Figures and Tables for the Weighted Model_FINAL for members_Upload251021_Revised170222.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyce.leong\Documents\FFA\SOUTH PACIFIC ALBACORE\SPA Workshop 4_Feb22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRep\albacator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136EBCF0-A24C-460A-BCC9-3D6525071AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA702F0-CA08-4657-A03B-EA349036E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14050" windowHeight="8900" tabRatio="832" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="832" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weighted Model Figures" sheetId="18" r:id="rId1"/>
@@ -31,6 +31,17 @@
     <definedName name="VMS">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -130,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="144">
   <si>
     <t>% Total</t>
   </si>
@@ -558,18 +569,27 @@
     <t>Note:
 5 Allocation factors</t>
   </si>
+  <si>
+    <t>where do these come from</t>
+  </si>
+  <si>
+    <t>Are these the ones to use</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -815,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1521,6 +1541,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1529,7 +1605,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2173,14 +2249,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2374,6 +2443,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2392,73 +2524,59 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="17" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2756,33 +2874,33 @@
   </sheetPr>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.90625" style="31"/>
-    <col min="3" max="3" width="7.54296875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="6" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="5.81640625" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="31"/>
+    <col min="3" max="3" width="7.5546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="9.81640625" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:22" s="31" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="4:22" s="31" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:22" s="31" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="4:22" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:22" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:22" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
         <v>69</v>
@@ -2797,26 +2915,26 @@
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
     </row>
-    <row r="5" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="331" t="s">
+    <row r="5" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="328" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="331"/>
-      <c r="P5" s="331"/>
-      <c r="Q5" s="331"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="331"/>
-    </row>
-    <row r="6" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="328"/>
+      <c r="G5" s="328"/>
+      <c r="H5" s="328"/>
+      <c r="I5" s="328"/>
+      <c r="J5" s="328"/>
+      <c r="K5" s="328"/>
+      <c r="L5" s="328"/>
+      <c r="M5" s="328"/>
+      <c r="N5" s="328"/>
+      <c r="O5" s="328"/>
+      <c r="P5" s="328"/>
+      <c r="Q5" s="328"/>
+      <c r="R5" s="328"/>
+      <c r="S5" s="328"/>
+    </row>
+    <row r="6" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -2837,9 +2955,9 @@
         <v>0.26</v>
       </c>
       <c r="K6" s="167"/>
-      <c r="L6" s="271"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="262"/>
+      <c r="L6" s="268"/>
+      <c r="M6" s="259"/>
+      <c r="N6" s="259"/>
       <c r="O6" s="170">
         <v>25000</v>
       </c>
@@ -2849,10 +2967,10 @@
       <c r="Q6" s="170">
         <v>40000</v>
       </c>
-      <c r="R6" s="263"/>
+      <c r="R6" s="260"/>
       <c r="S6" s="171"/>
     </row>
-    <row r="7" spans="4:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:22" ht="72" x14ac:dyDescent="0.3">
       <c r="E7" s="158"/>
       <c r="F7" s="163" t="s">
         <v>109</v>
@@ -2870,26 +2988,26 @@
         <v>66</v>
       </c>
       <c r="K7" s="166"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="258" t="s">
+      <c r="L7" s="261"/>
+      <c r="M7" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="259" t="s">
+      <c r="N7" s="256" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="330" t="s">
+      <c r="O7" s="327" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="330"/>
-      <c r="Q7" s="330"/>
-      <c r="R7" s="260" t="s">
+      <c r="P7" s="327"/>
+      <c r="Q7" s="327"/>
+      <c r="R7" s="257" t="s">
         <v>123</v>
       </c>
-      <c r="S7" s="265" t="s">
+      <c r="S7" s="262" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E8" s="70" t="s">
         <v>1</v>
       </c>
@@ -2921,7 +3039,7 @@
         <f t="shared" ref="M8:M20" si="0">SUM(F8:J8)</f>
         <v>5.7359038465942723E-2</v>
       </c>
-      <c r="N8" s="261">
+      <c r="N8" s="258">
         <f t="shared" ref="N8:N20" si="1">M8*1/M$21</f>
         <v>5.7359038465942723E-2</v>
       </c>
@@ -2937,7 +3055,7 @@
         <f t="shared" ref="Q8:Q20" si="4">N8*Q$6</f>
         <v>2294.3615386377091</v>
       </c>
-      <c r="R8" s="257">
+      <c r="R8" s="254">
         <f>Catch_History!AA36</f>
         <v>796</v>
       </c>
@@ -2947,7 +3065,7 @@
       </c>
       <c r="V8" s="156"/>
     </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E9" s="70" t="s">
         <v>2</v>
       </c>
@@ -2979,7 +3097,7 @@
         <f t="shared" si="0"/>
         <v>0.11885631831612622</v>
       </c>
-      <c r="N9" s="261">
+      <c r="N9" s="258">
         <f t="shared" si="1"/>
         <v>0.11885631831612622</v>
       </c>
@@ -2995,7 +3113,7 @@
         <f t="shared" si="4"/>
         <v>4754.252732645049</v>
       </c>
-      <c r="R9" s="257">
+      <c r="R9" s="254">
         <f>Catch_History!AA37</f>
         <v>5302</v>
       </c>
@@ -3005,7 +3123,7 @@
       </c>
       <c r="V9" s="156"/>
     </row>
-    <row r="10" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E10" s="70" t="s">
         <v>3</v>
       </c>
@@ -3037,7 +3155,7 @@
         <f t="shared" si="0"/>
         <v>9.461975085997662E-2</v>
       </c>
-      <c r="N10" s="261">
+      <c r="N10" s="258">
         <f t="shared" si="1"/>
         <v>9.461975085997662E-2</v>
       </c>
@@ -3053,7 +3171,7 @@
         <f t="shared" si="4"/>
         <v>3784.790034399065</v>
       </c>
-      <c r="R10" s="257">
+      <c r="R10" s="254">
         <f>Catch_History!AA38</f>
         <v>5140</v>
       </c>
@@ -3063,7 +3181,7 @@
       </c>
       <c r="V10" s="156"/>
     </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E11" s="70" t="s">
         <v>13</v>
       </c>
@@ -3095,7 +3213,7 @@
         <f t="shared" si="0"/>
         <v>0.10651923338295138</v>
       </c>
-      <c r="N11" s="261">
+      <c r="N11" s="258">
         <f t="shared" si="1"/>
         <v>0.10651923338295138</v>
       </c>
@@ -3111,7 +3229,7 @@
         <f t="shared" si="4"/>
         <v>4260.7693353180557</v>
       </c>
-      <c r="R11" s="257">
+      <c r="R11" s="254">
         <f>Catch_History!AA40</f>
         <v>1127</v>
       </c>
@@ -3121,7 +3239,7 @@
       </c>
       <c r="V11" s="156"/>
     </row>
-    <row r="12" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E12" s="70" t="s">
         <v>4</v>
       </c>
@@ -3153,7 +3271,7 @@
         <f t="shared" si="0"/>
         <v>3.1455234387664628E-2</v>
       </c>
-      <c r="N12" s="261">
+      <c r="N12" s="258">
         <f t="shared" si="1"/>
         <v>3.1455234387664628E-2</v>
       </c>
@@ -3169,7 +3287,7 @@
         <f t="shared" si="4"/>
         <v>1258.209375506585</v>
       </c>
-      <c r="R12" s="257">
+      <c r="R12" s="254">
         <f>Catch_History!AA42</f>
         <v>386</v>
       </c>
@@ -3179,7 +3297,7 @@
       </c>
       <c r="V12" s="156"/>
     </row>
-    <row r="13" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
@@ -3211,7 +3329,7 @@
         <f t="shared" si="0"/>
         <v>5.4016939884927777E-2</v>
       </c>
-      <c r="N13" s="261">
+      <c r="N13" s="258">
         <f t="shared" si="1"/>
         <v>5.4016939884927777E-2</v>
       </c>
@@ -3227,7 +3345,7 @@
         <f t="shared" si="4"/>
         <v>2160.677595397111</v>
       </c>
-      <c r="R13" s="257">
+      <c r="R13" s="254">
         <f>Catch_History!AA43</f>
         <v>845</v>
       </c>
@@ -3237,7 +3355,7 @@
       </c>
       <c r="V13" s="156"/>
     </row>
-    <row r="14" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E14" s="70" t="s">
         <v>6</v>
       </c>
@@ -3269,7 +3387,7 @@
         <f t="shared" si="0"/>
         <v>4.2147513576721585E-2</v>
       </c>
-      <c r="N14" s="261">
+      <c r="N14" s="258">
         <f t="shared" si="1"/>
         <v>4.2147513576721585E-2</v>
       </c>
@@ -3285,7 +3403,7 @@
         <f t="shared" si="4"/>
         <v>1685.9005430688635</v>
       </c>
-      <c r="R14" s="257">
+      <c r="R14" s="254">
         <f>Catch_History!AA45</f>
         <v>756</v>
       </c>
@@ -3295,7 +3413,7 @@
       </c>
       <c r="V14" s="156"/>
     </row>
-    <row r="15" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E15" s="70" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3445,7 @@
         <f t="shared" si="0"/>
         <v>0.17119039854202558</v>
       </c>
-      <c r="N15" s="261">
+      <c r="N15" s="258">
         <f t="shared" si="1"/>
         <v>0.17119039854202558</v>
       </c>
@@ -3343,7 +3461,7 @@
         <f t="shared" si="4"/>
         <v>6847.6159416810233</v>
       </c>
-      <c r="R15" s="257">
+      <c r="R15" s="254">
         <f>Catch_History!AA46</f>
         <v>4498</v>
       </c>
@@ -3353,7 +3471,7 @@
       </c>
       <c r="V15" s="156"/>
     </row>
-    <row r="16" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E16" s="70" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3503,7 @@
         <f t="shared" si="0"/>
         <v>6.8731361753473302E-2</v>
       </c>
-      <c r="N16" s="261">
+      <c r="N16" s="258">
         <f t="shared" si="1"/>
         <v>6.8731361753473302E-2</v>
       </c>
@@ -3401,7 +3519,7 @@
         <f t="shared" si="4"/>
         <v>2749.254470138932</v>
       </c>
-      <c r="R16" s="257">
+      <c r="R16" s="254">
         <f>Catch_History!AA47</f>
         <v>1970</v>
       </c>
@@ -3411,7 +3529,7 @@
       </c>
       <c r="V16" s="156"/>
     </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E17" s="70" t="s">
         <v>9</v>
       </c>
@@ -3443,7 +3561,7 @@
         <f t="shared" si="0"/>
         <v>4.5195256310791243E-2</v>
       </c>
-      <c r="N17" s="261">
+      <c r="N17" s="258">
         <f t="shared" si="1"/>
         <v>4.5195256310791243E-2</v>
       </c>
@@ -3459,7 +3577,7 @@
         <f t="shared" si="4"/>
         <v>1807.8102524316498</v>
       </c>
-      <c r="R17" s="257">
+      <c r="R17" s="254">
         <f>Catch_History!AA48</f>
         <v>1213</v>
       </c>
@@ -3469,7 +3587,7 @@
       </c>
       <c r="V17" s="156"/>
     </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E18" s="70" t="s">
         <v>10</v>
       </c>
@@ -3501,7 +3619,7 @@
         <f t="shared" si="0"/>
         <v>5.4718981500109676E-2</v>
       </c>
-      <c r="N18" s="261">
+      <c r="N18" s="258">
         <f t="shared" si="1"/>
         <v>5.4718981500109676E-2</v>
       </c>
@@ -3517,7 +3635,7 @@
         <f t="shared" si="4"/>
         <v>2188.7592600043872</v>
       </c>
-      <c r="R18" s="257">
+      <c r="R18" s="254">
         <f>Catch_History!AA49</f>
         <v>1448</v>
       </c>
@@ -3527,7 +3645,7 @@
       </c>
       <c r="V18" s="156"/>
     </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E19" s="70" t="s">
         <v>11</v>
       </c>
@@ -3559,7 +3677,7 @@
         <f t="shared" si="0"/>
         <v>0.10586982252195615</v>
       </c>
-      <c r="N19" s="261">
+      <c r="N19" s="258">
         <f t="shared" si="1"/>
         <v>0.10586982252195615</v>
       </c>
@@ -3575,7 +3693,7 @@
         <f t="shared" si="4"/>
         <v>4234.7929008782457</v>
       </c>
-      <c r="R19" s="257">
+      <c r="R19" s="254">
         <f>Catch_History!AA50</f>
         <v>3195</v>
       </c>
@@ -3585,7 +3703,7 @@
       </c>
       <c r="V19" s="156"/>
     </row>
-    <row r="20" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E20" s="70" t="s">
         <v>12</v>
       </c>
@@ -3617,7 +3735,7 @@
         <f t="shared" si="0"/>
         <v>4.9320150497333105E-2</v>
       </c>
-      <c r="N20" s="261">
+      <c r="N20" s="258">
         <f t="shared" si="1"/>
         <v>4.9320150497333105E-2</v>
       </c>
@@ -3633,7 +3751,7 @@
         <f t="shared" si="4"/>
         <v>1972.8060198933242</v>
       </c>
-      <c r="R20" s="257">
+      <c r="R20" s="254">
         <f>Catch_History!AA51</f>
         <v>1442</v>
       </c>
@@ -3643,7 +3761,7 @@
       </c>
       <c r="V20" s="156"/>
     </row>
-    <row r="21" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="162" t="s">
         <v>23</v>
       </c>
@@ -3668,56 +3786,56 @@
         <v>0.26</v>
       </c>
       <c r="K21" s="169"/>
-      <c r="L21" s="266"/>
-      <c r="M21" s="267">
+      <c r="L21" s="263"/>
+      <c r="M21" s="264">
         <f>SUM(M8:M20)</f>
         <v>1</v>
       </c>
-      <c r="N21" s="267">
-        <f t="shared" ref="M21:Q21" si="5">SUM(N8:N20)</f>
+      <c r="N21" s="264">
+        <f t="shared" ref="N21:Q21" si="5">SUM(N8:N20)</f>
         <v>1</v>
       </c>
-      <c r="O21" s="268">
+      <c r="O21" s="265">
         <f t="shared" si="5"/>
         <v>25000</v>
       </c>
-      <c r="P21" s="268">
+      <c r="P21" s="265">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="Q21" s="268">
+      <c r="Q21" s="265">
         <f t="shared" si="5"/>
         <v>39999.999999999993</v>
       </c>
-      <c r="R21" s="269">
+      <c r="R21" s="266">
         <f>SUM(R8:R20)</f>
         <v>28118</v>
       </c>
-      <c r="S21" s="270">
+      <c r="S21" s="267">
         <f>SUM(S8:S20)</f>
         <v>23584</v>
       </c>
     </row>
-    <row r="24" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="331" t="s">
+    <row r="24" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="328" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="331"/>
-      <c r="G24" s="331"/>
-      <c r="H24" s="331"/>
-      <c r="I24" s="331"/>
-      <c r="J24" s="331"/>
-      <c r="K24" s="331"/>
-      <c r="L24" s="331"/>
-      <c r="M24" s="331"/>
-      <c r="N24" s="331"/>
-      <c r="O24" s="331"/>
-      <c r="P24" s="331"/>
-      <c r="Q24" s="331"/>
-      <c r="R24" s="331"/>
-      <c r="S24" s="331"/>
-    </row>
-    <row r="25" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="328"/>
+      <c r="G24" s="328"/>
+      <c r="H24" s="328"/>
+      <c r="I24" s="328"/>
+      <c r="J24" s="328"/>
+      <c r="K24" s="328"/>
+      <c r="L24" s="328"/>
+      <c r="M24" s="328"/>
+      <c r="N24" s="328"/>
+      <c r="O24" s="328"/>
+      <c r="P24" s="328"/>
+      <c r="Q24" s="328"/>
+      <c r="R24" s="328"/>
+      <c r="S24" s="328"/>
+    </row>
+    <row r="25" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E25" s="159"/>
       <c r="F25" s="160">
         <v>0.26</v>
@@ -3735,8 +3853,8 @@
         <v>0.26</v>
       </c>
       <c r="L25" s="98"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="262"/>
+      <c r="M25" s="259"/>
+      <c r="N25" s="259"/>
       <c r="O25" s="170">
         <v>25000</v>
       </c>
@@ -3746,10 +3864,10 @@
       <c r="Q25" s="170">
         <v>40000</v>
       </c>
-      <c r="R25" s="263"/>
+      <c r="R25" s="260"/>
       <c r="S25" s="171"/>
     </row>
-    <row r="26" spans="5:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:22" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="158"/>
       <c r="F26" s="214" t="s">
         <v>132</v>
@@ -3766,26 +3884,26 @@
       <c r="J26" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="264"/>
-      <c r="M26" s="258" t="s">
+      <c r="L26" s="261"/>
+      <c r="M26" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="N26" s="259" t="s">
+      <c r="N26" s="256" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="330" t="s">
+      <c r="O26" s="327" t="s">
         <v>72</v>
       </c>
-      <c r="P26" s="330"/>
-      <c r="Q26" s="330"/>
-      <c r="R26" s="260" t="s">
+      <c r="P26" s="327"/>
+      <c r="Q26" s="327"/>
+      <c r="R26" s="257" t="s">
         <v>127</v>
       </c>
-      <c r="S26" s="265" t="s">
+      <c r="S26" s="262" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="5:22" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:22" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="70" t="s">
         <v>1</v>
       </c>
@@ -3816,7 +3934,7 @@
         <f t="shared" ref="M27:M39" si="6">SUM(F27:J27)</f>
         <v>6.336810762770663E-2</v>
       </c>
-      <c r="N27" s="261">
+      <c r="N27" s="258">
         <f>M27*1/M$40</f>
         <v>6.3368107627706616E-2</v>
       </c>
@@ -3832,7 +3950,7 @@
         <f t="shared" ref="Q27:Q39" si="9">N27*Q$6</f>
         <v>2534.7243051082646</v>
       </c>
-      <c r="R27" s="257">
+      <c r="R27" s="254">
         <f>Catch_History!AA36</f>
         <v>796</v>
       </c>
@@ -3841,7 +3959,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="28" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E28" s="70" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3990,7 @@
         <f t="shared" si="6"/>
         <v>0.11716480207178014</v>
       </c>
-      <c r="N28" s="261">
+      <c r="N28" s="258">
         <f t="shared" ref="N28:N39" si="10">M28*1/M$40</f>
         <v>0.11716480207178011</v>
       </c>
@@ -3888,7 +4006,7 @@
         <f t="shared" si="9"/>
         <v>4686.5920828712042</v>
       </c>
-      <c r="R28" s="257">
+      <c r="R28" s="254">
         <f>Catch_History!AA37</f>
         <v>5302</v>
       </c>
@@ -3897,7 +4015,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="29" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E29" s="70" t="s">
         <v>3</v>
       </c>
@@ -3928,7 +4046,7 @@
         <f t="shared" si="6"/>
         <v>9.6253155492038681E-2</v>
       </c>
-      <c r="N29" s="261">
+      <c r="N29" s="258">
         <f t="shared" si="10"/>
         <v>9.6253155492038653E-2</v>
       </c>
@@ -3944,7 +4062,7 @@
         <f t="shared" si="9"/>
         <v>3850.126219681546</v>
       </c>
-      <c r="R29" s="257">
+      <c r="R29" s="254">
         <f>Catch_History!AA38</f>
         <v>5140</v>
       </c>
@@ -3953,7 +4071,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="30" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E30" s="70" t="s">
         <v>13</v>
       </c>
@@ -3984,7 +4102,7 @@
         <f t="shared" si="6"/>
         <v>9.6655964239404174E-2</v>
       </c>
-      <c r="N30" s="261">
+      <c r="N30" s="258">
         <f t="shared" si="10"/>
         <v>9.6655964239404146E-2</v>
       </c>
@@ -4000,7 +4118,7 @@
         <f t="shared" si="9"/>
         <v>3866.2385695761659</v>
       </c>
-      <c r="R30" s="257">
+      <c r="R30" s="254">
         <f>Catch_History!AA40</f>
         <v>1127</v>
       </c>
@@ -4009,7 +4127,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="31" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E31" s="70" t="s">
         <v>4</v>
       </c>
@@ -4040,7 +4158,7 @@
         <f t="shared" si="6"/>
         <v>3.0634444687116135E-2</v>
       </c>
-      <c r="N31" s="261">
+      <c r="N31" s="258">
         <f t="shared" si="10"/>
         <v>3.0634444687116128E-2</v>
       </c>
@@ -4056,7 +4174,7 @@
         <f t="shared" si="9"/>
         <v>1225.3777874846451</v>
       </c>
-      <c r="R31" s="257">
+      <c r="R31" s="254">
         <f>Catch_History!AA42</f>
         <v>386</v>
       </c>
@@ -4065,7 +4183,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E32" s="70" t="s">
         <v>5</v>
       </c>
@@ -4096,7 +4214,7 @@
         <f t="shared" si="6"/>
         <v>5.8390670526553917E-2</v>
       </c>
-      <c r="N32" s="261">
+      <c r="N32" s="258">
         <f t="shared" si="10"/>
         <v>5.8390670526553903E-2</v>
       </c>
@@ -4112,7 +4230,7 @@
         <f t="shared" si="9"/>
         <v>2335.6268210621561</v>
       </c>
-      <c r="R32" s="257">
+      <c r="R32" s="254">
         <f>Catch_History!AA56</f>
         <v>2752</v>
       </c>
@@ -4121,7 +4239,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E33" s="70" t="s">
         <v>6</v>
       </c>
@@ -4152,7 +4270,7 @@
         <f t="shared" si="6"/>
         <v>4.2186001880839749E-2</v>
       </c>
-      <c r="N33" s="261">
+      <c r="N33" s="258">
         <f t="shared" si="10"/>
         <v>4.2186001880839742E-2</v>
       </c>
@@ -4168,7 +4286,7 @@
         <f t="shared" si="9"/>
         <v>1687.4400752335896</v>
       </c>
-      <c r="R33" s="257">
+      <c r="R33" s="254">
         <f>Catch_History!AA45</f>
         <v>756</v>
       </c>
@@ -4177,7 +4295,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E34" s="70" t="s">
         <v>7</v>
       </c>
@@ -4208,7 +4326,7 @@
         <f t="shared" si="6"/>
         <v>0.18320178489015554</v>
       </c>
-      <c r="N34" s="261">
+      <c r="N34" s="258">
         <f t="shared" si="10"/>
         <v>0.18320178489015551</v>
       </c>
@@ -4224,7 +4342,7 @@
         <f t="shared" si="9"/>
         <v>7328.0713956062209</v>
       </c>
-      <c r="R34" s="257">
+      <c r="R34" s="254">
         <f>Catch_History!AA46</f>
         <v>4498</v>
       </c>
@@ -4233,7 +4351,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E35" s="70" t="s">
         <v>8</v>
       </c>
@@ -4264,7 +4382,7 @@
         <f t="shared" si="6"/>
         <v>6.3169877942027719E-2</v>
       </c>
-      <c r="N35" s="261">
+      <c r="N35" s="258">
         <f t="shared" si="10"/>
         <v>6.3169877942027705E-2</v>
       </c>
@@ -4280,7 +4398,7 @@
         <f t="shared" si="9"/>
         <v>2526.7951176811084</v>
       </c>
-      <c r="R35" s="257">
+      <c r="R35" s="254">
         <f>Catch_History!AA47</f>
         <v>1970</v>
       </c>
@@ -4289,7 +4407,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E36" s="70" t="s">
         <v>9</v>
       </c>
@@ -4320,7 +4438,7 @@
         <f t="shared" si="6"/>
         <v>4.253111554226971E-2</v>
       </c>
-      <c r="N36" s="261">
+      <c r="N36" s="258">
         <f t="shared" si="10"/>
         <v>4.2531115542269703E-2</v>
       </c>
@@ -4336,7 +4454,7 @@
         <f t="shared" si="9"/>
         <v>1701.2446216907881</v>
       </c>
-      <c r="R36" s="257">
+      <c r="R36" s="254">
         <f>Catch_History!AA48</f>
         <v>1213</v>
       </c>
@@ -4345,7 +4463,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E37" s="70" t="s">
         <v>10</v>
       </c>
@@ -4376,7 +4494,7 @@
         <f t="shared" si="6"/>
         <v>4.8164037546593458E-2</v>
       </c>
-      <c r="N37" s="261">
+      <c r="N37" s="258">
         <f t="shared" si="10"/>
         <v>4.8164037546593444E-2</v>
       </c>
@@ -4392,7 +4510,7 @@
         <f t="shared" si="9"/>
         <v>1926.5615018637377</v>
       </c>
-      <c r="R37" s="257">
+      <c r="R37" s="254">
         <f>Catch_History!AA49</f>
         <v>1448</v>
       </c>
@@ -4401,7 +4519,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E38" s="70" t="s">
         <v>11</v>
       </c>
@@ -4432,7 +4550,7 @@
         <f t="shared" si="6"/>
         <v>0.10319715281572867</v>
       </c>
-      <c r="N38" s="261">
+      <c r="N38" s="258">
         <f t="shared" si="10"/>
         <v>0.10319715281572864</v>
       </c>
@@ -4448,7 +4566,7 @@
         <f t="shared" si="9"/>
         <v>4127.8861126291458</v>
       </c>
-      <c r="R38" s="257">
+      <c r="R38" s="254">
         <f>Catch_History!AA50</f>
         <v>3195</v>
       </c>
@@ -4457,7 +4575,7 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E39" s="70" t="s">
         <v>12</v>
       </c>
@@ -4488,7 +4606,7 @@
         <f t="shared" si="6"/>
         <v>5.5082884737785484E-2</v>
       </c>
-      <c r="N39" s="261">
+      <c r="N39" s="258">
         <f t="shared" si="10"/>
         <v>5.508288473778547E-2</v>
       </c>
@@ -4504,7 +4622,7 @@
         <f t="shared" si="9"/>
         <v>2203.3153895114187</v>
       </c>
-      <c r="R39" s="257">
+      <c r="R39" s="254">
         <f>Catch_History!AA51</f>
         <v>1442</v>
       </c>
@@ -4513,7 +4631,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E40" s="162" t="s">
         <v>23</v>
       </c>
@@ -4537,39 +4655,39 @@
         <f>SUM(J27:J39)</f>
         <v>0.26</v>
       </c>
-      <c r="L40" s="266"/>
-      <c r="M40" s="267">
+      <c r="L40" s="263"/>
+      <c r="M40" s="264">
         <f t="shared" ref="M40" si="11">SUM(M27:M39)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="N40" s="267">
+      <c r="N40" s="264">
         <f>SUM(N27:N39)</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="O40" s="268">
+      <c r="O40" s="265">
         <f t="shared" ref="O40" si="12">SUM(O27:O39)</f>
         <v>24999.999999999993</v>
       </c>
-      <c r="P40" s="268">
+      <c r="P40" s="265">
         <f t="shared" ref="P40" si="13">SUM(P27:P39)</f>
         <v>29999.999999999993</v>
       </c>
-      <c r="Q40" s="268">
+      <c r="Q40" s="265">
         <f t="shared" ref="Q40" si="14">SUM(Q27:Q39)</f>
         <v>39999.999999999985</v>
       </c>
-      <c r="R40" s="269">
+      <c r="R40" s="266">
         <f>SUM(R27:R39)</f>
         <v>30025</v>
       </c>
-      <c r="S40" s="270">
+      <c r="S40" s="267">
         <f>SUM(S27:S39)</f>
         <v>26443</v>
       </c>
     </row>
-    <row r="41" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="279">
+    <row r="41" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="276">
         <v>0.42</v>
       </c>
       <c r="F42" s="160">
@@ -4588,7 +4706,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="43" spans="5:19" ht="87" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="E43" s="158"/>
       <c r="F43" s="163" t="s">
         <v>63</v>
@@ -4606,397 +4724,397 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E44" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="287">
+      <c r="F44" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K5))</f>
         <v>1.0965328794122918E-2</v>
       </c>
-      <c r="G44" s="287">
+      <c r="G44" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D21))</f>
         <v>0</v>
       </c>
-      <c r="H44" s="287">
+      <c r="H44" s="284">
         <v>5.1313154763632145E-3</v>
       </c>
-      <c r="I44" s="287">
+      <c r="I44" s="284">
         <v>4.0814916199666727E-2</v>
       </c>
-      <c r="J44" s="287">
+      <c r="J44" s="284">
         <v>3.9602686226378767E-4</v>
       </c>
       <c r="M44" s="156">
         <f>SUM(G44:J44)</f>
         <v>4.6342258538293733E-2</v>
       </c>
-      <c r="N44" s="285">
+      <c r="N44" s="282">
         <f>M44*1/M$57</f>
         <v>7.9900445755678853E-2</v>
       </c>
     </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E45" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="287">
+      <c r="F45" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K6))</f>
         <v>4.279564594158753E-2</v>
       </c>
-      <c r="G45" s="287">
+      <c r="G45" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D22))</f>
         <v>0</v>
       </c>
-      <c r="H45" s="287">
+      <c r="H45" s="284">
         <v>1.9700513653907546E-2</v>
       </c>
-      <c r="I45" s="287">
+      <c r="I45" s="284">
         <v>2.2936222875293382E-2</v>
       </c>
-      <c r="J45" s="287">
+      <c r="J45" s="284">
         <v>7.9205372452757529E-3</v>
       </c>
       <c r="M45" s="156">
         <f t="shared" ref="M45:M56" si="15">SUM(G45:J45)</f>
         <v>5.0557273774476677E-2</v>
       </c>
-      <c r="N45" s="285">
+      <c r="N45" s="282">
         <f t="shared" ref="N45:N56" si="16">M45*1/M$57</f>
         <v>8.7167713404270139E-2</v>
       </c>
     </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E46" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="287">
+      <c r="F46" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K7))</f>
         <v>3.3367676043719763E-2</v>
       </c>
-      <c r="G46" s="287">
+      <c r="G46" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D23))</f>
         <v>0</v>
       </c>
-      <c r="H46" s="287">
+      <c r="H46" s="284">
         <v>1.4817028932934793E-2</v>
       </c>
-      <c r="I46" s="287">
+      <c r="I46" s="284">
         <v>1.7769400305165026E-2</v>
       </c>
-      <c r="J46" s="287">
+      <c r="J46" s="284">
         <v>6.7324566584843907E-3</v>
       </c>
       <c r="M46" s="156">
         <f t="shared" si="15"/>
         <v>3.9318885896584208E-2</v>
       </c>
-      <c r="N46" s="285">
+      <c r="N46" s="282">
         <f t="shared" si="16"/>
         <v>6.7791182580317605E-2</v>
       </c>
     </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E47" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="287">
+      <c r="F47" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K8))</f>
         <v>9.8996595592187788E-3</v>
       </c>
-      <c r="G47" s="287">
+      <c r="G47" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D24))</f>
         <v>0</v>
       </c>
-      <c r="H47" s="287">
+      <c r="H47" s="284">
         <v>5.0784990858701654E-3</v>
       </c>
-      <c r="I47" s="287">
+      <c r="I47" s="284">
         <v>5.5396079458854258E-3</v>
       </c>
-      <c r="J47" s="287">
+      <c r="J47" s="284">
         <v>7.0492781482954209E-2</v>
       </c>
       <c r="M47" s="156">
         <f t="shared" si="15"/>
         <v>8.1110888514709795E-2</v>
       </c>
-      <c r="N47" s="285">
+      <c r="N47" s="282">
         <f t="shared" si="16"/>
         <v>0.13984635950812035</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E48" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="287">
+      <c r="F48" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K9))</f>
         <v>1.8576419996416413E-3</v>
       </c>
-      <c r="G48" s="287">
+      <c r="G48" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D25))</f>
         <v>0</v>
       </c>
-      <c r="H48" s="287">
+      <c r="H48" s="284">
         <v>5.0784990858701654E-3</v>
       </c>
-      <c r="I48" s="287">
+      <c r="I48" s="284">
         <v>4.4131182216749117E-3</v>
       </c>
-      <c r="J48" s="287">
+      <c r="J48" s="284">
         <v>1.8217235664134232E-2</v>
       </c>
       <c r="M48" s="156">
         <f t="shared" si="15"/>
         <v>2.7708852971679309E-2</v>
       </c>
-      <c r="N48" s="285">
+      <c r="N48" s="282">
         <f t="shared" si="16"/>
         <v>4.7773884433929846E-2</v>
       </c>
     </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E49" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="287">
+      <c r="F49" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K10))</f>
         <v>2.4574449023472499E-3</v>
       </c>
-      <c r="G49" s="287">
+      <c r="G49" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D26))</f>
         <v>0</v>
       </c>
-      <c r="H49" s="287">
+      <c r="H49" s="284">
         <v>1.3610377550132042E-2</v>
       </c>
-      <c r="I49" s="287">
+      <c r="I49" s="284">
         <v>3.438894239810799E-2</v>
       </c>
-      <c r="J49" s="287">
+      <c r="J49" s="284">
         <v>4.6203133930775231E-4</v>
       </c>
       <c r="M49" s="156">
         <f t="shared" si="15"/>
         <v>4.8461351287547784E-2</v>
       </c>
-      <c r="N49" s="285">
+      <c r="N49" s="282">
         <f t="shared" si="16"/>
         <v>8.3554053944047912E-2</v>
       </c>
     </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E50" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="287">
+      <c r="F50" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K11))</f>
         <v>8.8747536283820105E-3</v>
       </c>
-      <c r="G50" s="287">
+      <c r="G50" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D27))</f>
         <v>0</v>
       </c>
-      <c r="H50" s="287">
+      <c r="H50" s="284">
         <v>5.0784990858701654E-3</v>
       </c>
-      <c r="I50" s="287">
+      <c r="I50" s="284">
         <v>1.4059234256744255E-2</v>
       </c>
-      <c r="J50" s="287">
+      <c r="J50" s="284">
         <v>7.9205372452757529E-3</v>
       </c>
       <c r="M50" s="156">
         <f t="shared" si="15"/>
         <v>2.7058270587890173E-2</v>
       </c>
-      <c r="N50" s="285">
+      <c r="N50" s="282">
         <f t="shared" si="16"/>
         <v>4.6652190668776163E-2</v>
       </c>
     </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E51" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="287">
+      <c r="F51" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K12))</f>
         <v>6.8214477692169859E-2</v>
       </c>
-      <c r="G51" s="287">
+      <c r="G51" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D28))</f>
         <v>0</v>
       </c>
-      <c r="H51" s="287">
+      <c r="H51" s="284">
         <v>2.9455294698046957E-2</v>
       </c>
-      <c r="I51" s="287">
+      <c r="I51" s="284">
         <v>1.4403650164747159E-2</v>
       </c>
-      <c r="J51" s="287">
+      <c r="J51" s="284">
         <v>3.1682148981103019E-2</v>
       </c>
       <c r="M51" s="156">
         <f t="shared" si="15"/>
         <v>7.5541093843897136E-2</v>
       </c>
-      <c r="N51" s="285">
+      <c r="N51" s="282">
         <f t="shared" si="16"/>
         <v>0.13024326524809851</v>
       </c>
     </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E52" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="287">
+      <c r="F52" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K13))</f>
         <v>1.0441229170399571E-2</v>
       </c>
-      <c r="G52" s="287">
+      <c r="G52" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D29))</f>
         <v>0</v>
       </c>
-      <c r="H52" s="287">
+      <c r="H52" s="284">
         <v>5.0784990858701654E-3</v>
       </c>
-      <c r="I52" s="287">
+      <c r="I52" s="284">
         <v>1.6754870626002779E-3</v>
       </c>
-      <c r="J52" s="287">
+      <c r="J52" s="284">
         <v>4.449538245145554E-2</v>
       </c>
       <c r="M52" s="156">
         <f t="shared" si="15"/>
         <v>5.124936859992598E-2</v>
       </c>
-      <c r="N52" s="285">
+      <c r="N52" s="282">
         <f t="shared" si="16"/>
         <v>8.8360980344699969E-2</v>
       </c>
     </row>
-    <row r="53" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E53" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="287">
+      <c r="F53" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K14))</f>
         <v>5.6486292779071856E-3</v>
       </c>
-      <c r="G53" s="287">
+      <c r="G53" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D30))</f>
         <v>0</v>
       </c>
-      <c r="H53" s="287">
+      <c r="H53" s="284">
         <v>5.0784990858701654E-3</v>
       </c>
-      <c r="I53" s="287">
+      <c r="I53" s="284">
         <v>9.1493287952787959E-3</v>
       </c>
-      <c r="J53" s="287">
+      <c r="J53" s="284">
         <v>1.9009289388661806E-2</v>
       </c>
       <c r="M53" s="156">
         <f t="shared" si="15"/>
         <v>3.3237117269810768E-2</v>
       </c>
-      <c r="N53" s="285">
+      <c r="N53" s="282">
         <f t="shared" si="16"/>
         <v>5.7305374603122017E-2</v>
       </c>
     </row>
-    <row r="54" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E54" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="287">
+      <c r="F54" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K15))</f>
         <v>5.9572657229887121E-3</v>
       </c>
-      <c r="G54" s="287">
+      <c r="G54" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D31))</f>
         <v>0</v>
       </c>
-      <c r="H54" s="287">
+      <c r="H54" s="284">
         <v>5.0784990858701654E-3</v>
       </c>
-      <c r="I54" s="287">
+      <c r="I54" s="284">
         <v>4.392224246398113E-3</v>
       </c>
-      <c r="J54" s="287">
+      <c r="J54" s="284">
         <v>2.9702014669784074E-2</v>
       </c>
       <c r="M54" s="156">
         <f t="shared" si="15"/>
         <v>3.9172738002052357E-2</v>
       </c>
-      <c r="N54" s="285">
+      <c r="N54" s="282">
         <f t="shared" si="16"/>
         <v>6.7539203451814411E-2</v>
       </c>
     </row>
-    <row r="55" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E55" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="287">
+      <c r="F55" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K16))</f>
         <v>4.3104282386669059E-2</v>
       </c>
-      <c r="G55" s="287">
+      <c r="G55" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D32))</f>
         <v>0</v>
       </c>
-      <c r="H55" s="287">
+      <c r="H55" s="284">
         <v>1.7015003337299401E-2</v>
       </c>
-      <c r="I55" s="287">
+      <c r="I55" s="284">
         <v>8.6478973410157624E-3</v>
       </c>
-      <c r="J55" s="287">
+      <c r="J55" s="284">
         <v>9.108617832067116E-3</v>
       </c>
       <c r="M55" s="156">
         <f t="shared" si="15"/>
         <v>3.4771518510382279E-2</v>
       </c>
-      <c r="N55" s="285">
+      <c r="N55" s="282">
         <f t="shared" si="16"/>
         <v>5.9950893983417727E-2</v>
       </c>
     </row>
-    <row r="56" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E56" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="287">
+      <c r="F56" s="284">
         <f>(IF(F$25&gt;0,F$25*datapercentage!K17))</f>
         <v>1.6415964880845728E-2</v>
       </c>
-      <c r="G56" s="287">
+      <c r="G56" s="284">
         <f>(IF(E$42&gt;0,E$42*datapercentage!D33))</f>
         <v>0</v>
       </c>
-      <c r="H56" s="287">
+      <c r="H56" s="284">
         <v>9.7994718360950705E-3</v>
       </c>
-      <c r="I56" s="287">
+      <c r="I56" s="284">
         <v>1.809970187422165E-3</v>
       </c>
-      <c r="J56" s="287">
+      <c r="J56" s="284">
         <v>1.386094017923257E-2</v>
       </c>
       <c r="M56" s="156">
         <f t="shared" si="15"/>
         <v>2.5470382202749806E-2</v>
       </c>
-      <c r="N56" s="285">
+      <c r="N56" s="282">
         <f t="shared" si="16"/>
         <v>4.3914452073706568E-2</v>
       </c>
     </row>
-    <row r="57" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="162" t="s">
         <v>23</v>
       </c>
@@ -5024,7 +5142,7 @@
         <f>SUM(M44:M56)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="N57" s="286">
+      <c r="N57" s="283">
         <f>SUM(N44:N56)</f>
         <v>1</v>
       </c>
@@ -5050,20 +5168,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -5071,7 +5189,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="2:15" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
       <c r="K3" s="133"/>
@@ -5079,7 +5197,7 @@
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
     </row>
-    <row r="4" spans="2:15" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="150"/>
       <c r="C4" s="146" t="s">
         <v>109</v>
@@ -5114,7 +5232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -5163,7 +5281,7 @@
         <v>1.5231802394761063E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="70" t="s">
         <v>2</v>
       </c>
@@ -5212,7 +5330,7 @@
         <v>3.0463604789522127E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="70" t="s">
         <v>3</v>
       </c>
@@ -5261,7 +5379,7 @@
         <v>2.5894064071093809E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
@@ -5310,7 +5428,7 @@
         <v>0.27112608262674692</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="70" t="s">
         <v>4</v>
       </c>
@@ -5359,7 +5477,7 @@
         <v>7.0066291015900894E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="70" t="s">
         <v>5</v>
       </c>
@@ -5408,7 +5526,7 @@
         <v>1.7770436127221242E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="70" t="s">
         <v>6</v>
       </c>
@@ -5457,7 +5575,7 @@
         <v>3.0463604789522127E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="70" t="s">
         <v>7</v>
       </c>
@@ -5506,7 +5624,7 @@
         <v>0.12185441915808853</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="70" t="s">
         <v>8</v>
       </c>
@@ -5555,7 +5673,7 @@
         <v>0.17113608635175206</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="70" t="s">
         <v>9</v>
       </c>
@@ -5604,7 +5722,7 @@
         <v>7.3112651494853104E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="70" t="s">
         <v>10</v>
       </c>
@@ -5653,7 +5771,7 @@
         <v>0.11423851796070797</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="70" t="s">
         <v>11</v>
       </c>
@@ -5702,7 +5820,7 @@
         <v>3.5033145507950447E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="111" t="s">
         <v>12</v>
       </c>
@@ -5751,7 +5869,7 @@
         <v>5.331130838166373E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C18" s="156">
         <f>SUM(C5:C17)</f>
         <v>1.0000000000000002</v>
@@ -5795,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
@@ -5804,7 +5922,7 @@
       <c r="N19" s="33"/>
       <c r="O19" s="33"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -5812,7 +5930,7 @@
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
@@ -5820,7 +5938,7 @@
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -5828,7 +5946,7 @@
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -5836,7 +5954,7 @@
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
@@ -5844,7 +5962,7 @@
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -5852,7 +5970,7 @@
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -5860,7 +5978,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -5868,7 +5986,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -5876,7 +5994,7 @@
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
@@ -5884,7 +6002,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -5892,7 +6010,7 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -5900,7 +6018,7 @@
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -5908,7 +6026,7 @@
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
@@ -5916,7 +6034,7 @@
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -5924,7 +6042,7 @@
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -5932,7 +6050,7 @@
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -5950,32 +6068,32 @@
   <dimension ref="B3:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" customWidth="1"/>
-    <col min="19" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-    </row>
-    <row r="5" spans="2:20" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+    </row>
+    <row r="5" spans="2:20" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="150"/>
       <c r="C5" s="219" t="s">
         <v>109</v>
@@ -6009,7 +6127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="152" t="s">
         <v>14</v>
       </c>
@@ -6017,7 +6135,7 @@
       <c r="D6" s="224"/>
       <c r="E6" s="224"/>
       <c r="F6" s="224"/>
-      <c r="G6" s="225"/>
+      <c r="G6" s="372"/>
       <c r="I6" s="152" t="s">
         <v>14</v>
       </c>
@@ -6027,25 +6145,28 @@
       <c r="M6" s="224"/>
       <c r="N6" s="225"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="226">
+      <c r="C7" s="363">
         <v>895</v>
       </c>
-      <c r="D7" s="226">
+      <c r="D7" s="363">
         <v>1613</v>
       </c>
-      <c r="E7" s="226">
+      <c r="E7" s="363">
         <v>2526</v>
       </c>
-      <c r="F7" s="227">
+      <c r="F7" s="371">
         <f>'Biomass Esitmation_ 2021'!X8</f>
         <v>14362.219073708944</v>
       </c>
-      <c r="G7" s="253">
-        <v>0</v>
+      <c r="G7" s="374">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>142</v>
       </c>
       <c r="I7" s="153" t="s">
         <v>1</v>
@@ -6063,29 +6184,29 @@
         <f>'Biomass Esitmation_ 2021'!X8</f>
         <v>14362.219073708944</v>
       </c>
-      <c r="N7" s="253">
+      <c r="N7" s="370">
         <f>'Index of Fisheries Dependency '!C5</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="226">
+      <c r="C8" s="363">
         <v>7390.333333333333</v>
       </c>
-      <c r="D8" s="226">
+      <c r="D8" s="363">
         <v>6476.8</v>
       </c>
-      <c r="E8" s="226">
+      <c r="E8" s="363">
         <v>9698</v>
       </c>
-      <c r="F8" s="227">
+      <c r="F8" s="371">
         <f>'Biomass Esitmation_ 2021'!X9</f>
         <v>8070.9477889622094</v>
       </c>
-      <c r="G8" s="253">
+      <c r="G8" s="375">
         <v>0.02</v>
       </c>
       <c r="I8" s="153" t="s">
@@ -6104,31 +6225,31 @@
         <f>'Biomass Esitmation_ 2021'!X9</f>
         <v>8070.9477889622094</v>
       </c>
-      <c r="N8" s="253">
+      <c r="N8" s="370">
         <f>'Index of Fisheries Dependency '!C6</f>
         <v>0.02</v>
       </c>
       <c r="S8" s="218"/>
       <c r="T8" s="218"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="226">
+      <c r="C9" s="363">
         <v>5761.666666666667</v>
       </c>
-      <c r="D9" s="226">
+      <c r="D9" s="363">
         <v>5698.4</v>
       </c>
-      <c r="E9" s="226">
+      <c r="E9" s="363">
         <v>7294</v>
       </c>
-      <c r="F9" s="227">
+      <c r="F9" s="371">
         <f>'Biomass Esitmation_ 2021'!X10</f>
         <v>6252.8125438928273</v>
       </c>
-      <c r="G9" s="253">
+      <c r="G9" s="375">
         <v>1.6E-2</v>
       </c>
       <c r="I9" s="153" t="s">
@@ -6147,31 +6268,31 @@
         <f>'Biomass Esitmation_ 2021'!X10</f>
         <v>6252.8125438928273</v>
       </c>
-      <c r="N9" s="253">
+      <c r="N9" s="370">
         <f>'Index of Fisheries Dependency '!C7</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="S9" s="218"/>
       <c r="T9" s="218"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="226">
+      <c r="C10" s="363">
         <v>2873.3333333333335</v>
       </c>
-      <c r="D10" s="226">
+      <c r="D10" s="363">
         <v>2219.1999999999998</v>
       </c>
-      <c r="E10" s="226">
+      <c r="E10" s="363">
         <v>2500</v>
       </c>
-      <c r="F10" s="227">
+      <c r="F10" s="371">
         <f>'Biomass Esitmation_ 2021'!X11</f>
         <v>1949.3133959176166</v>
       </c>
-      <c r="G10" s="253">
+      <c r="G10" s="375">
         <v>0.18</v>
       </c>
       <c r="I10" s="153" t="s">
@@ -6190,31 +6311,31 @@
         <f>'Biomass Esitmation_ 2021'!X11</f>
         <v>1949.3133959176166</v>
       </c>
-      <c r="N10" s="253">
+      <c r="N10" s="370">
         <f>'Index of Fisheries Dependency '!C8</f>
         <v>0.17799999999999999</v>
       </c>
       <c r="S10" s="218"/>
       <c r="T10" s="218"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="226">
+      <c r="C11" s="363">
         <v>370.66666666666669</v>
       </c>
-      <c r="D11" s="226">
+      <c r="D11" s="363">
         <v>341.4</v>
       </c>
-      <c r="E11" s="226">
+      <c r="E11" s="363">
         <v>2500</v>
       </c>
-      <c r="F11" s="227">
+      <c r="F11" s="371">
         <f>'Biomass Esitmation_ 2021'!X12</f>
         <v>1552.9168402014129</v>
       </c>
-      <c r="G11" s="253">
+      <c r="G11" s="375">
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="I11" s="153" t="s">
@@ -6233,31 +6354,31 @@
         <f>'Biomass Esitmation_ 2021'!X12</f>
         <v>1552.9168402014129</v>
       </c>
-      <c r="N11" s="253">
+      <c r="N11" s="370">
         <f>'Index of Fisheries Dependency '!C9</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="S11" s="218"/>
       <c r="T11" s="218"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="226">
+      <c r="C12" s="363">
         <v>574.33333333333337</v>
       </c>
-      <c r="D12" s="226">
+      <c r="D12" s="363">
         <v>565</v>
       </c>
-      <c r="E12" s="226">
+      <c r="E12" s="363">
         <v>6700</v>
       </c>
-      <c r="F12" s="227">
+      <c r="F12" s="371">
         <f>'Biomass Esitmation_ 2021'!X13</f>
         <v>12101.005476003347</v>
       </c>
-      <c r="G12" s="253">
+      <c r="G12" s="375">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="I12" s="153" t="s">
@@ -6276,31 +6397,31 @@
         <f>'Biomass Esitmation_ 2021'!X13</f>
         <v>12101.005476003347</v>
       </c>
-      <c r="N12" s="253">
+      <c r="N12" s="370">
         <f>'Index of Fisheries Dependency '!C10</f>
         <v>1.1666666666666668E-3</v>
       </c>
       <c r="S12" s="218"/>
       <c r="T12" s="218"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="226">
+      <c r="C13" s="363">
         <v>1416.3333333333333</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="363">
         <v>1790.8</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="363">
         <v>2500</v>
       </c>
-      <c r="F13" s="227">
+      <c r="F13" s="371">
         <f>'Biomass Esitmation_ 2021'!X14</f>
         <v>4947.2551019375442</v>
       </c>
-      <c r="G13" s="253">
+      <c r="G13" s="375">
         <v>0.02</v>
       </c>
       <c r="I13" s="153" t="s">
@@ -6319,31 +6440,31 @@
         <f>'Biomass Esitmation_ 2021'!X14</f>
         <v>4947.2551019375442</v>
       </c>
-      <c r="N13" s="253">
+      <c r="N13" s="370">
         <f>'Index of Fisheries Dependency '!C11</f>
         <v>0.02</v>
       </c>
       <c r="S13" s="218"/>
       <c r="T13" s="218"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="226">
+      <c r="C14" s="363">
         <v>10119</v>
       </c>
-      <c r="D14" s="226">
+      <c r="D14" s="363">
         <v>9498.2000000000007</v>
       </c>
-      <c r="E14" s="226">
+      <c r="E14" s="363">
         <v>14500</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="371">
         <f>'Biomass Esitmation_ 2021'!X15</f>
         <v>5068.450419331054</v>
       </c>
-      <c r="G14" s="253">
+      <c r="G14" s="375">
         <v>0.08</v>
       </c>
       <c r="I14" s="153" t="s">
@@ -6362,31 +6483,31 @@
         <f>'Biomass Esitmation_ 2021'!X15</f>
         <v>5068.450419331054</v>
       </c>
-      <c r="N14" s="253">
+      <c r="N14" s="370">
         <f>'Index of Fisheries Dependency '!C12</f>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="S14" s="218"/>
       <c r="T14" s="218"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="226">
+      <c r="C15" s="363">
         <v>2094.6666666666702</v>
       </c>
-      <c r="D15" s="226">
+      <c r="D15" s="364">
         <v>1715.6</v>
       </c>
-      <c r="E15" s="226">
+      <c r="E15" s="363">
         <v>2500</v>
       </c>
-      <c r="F15" s="227">
+      <c r="F15" s="371">
         <f>'Biomass Esitmation_ 2021'!X16</f>
         <v>589.58132194883137</v>
       </c>
-      <c r="G15" s="253">
+      <c r="G15" s="375">
         <v>0.11</v>
       </c>
       <c r="I15" s="153" t="s">
@@ -6405,31 +6526,31 @@
         <f>'Biomass Esitmation_ 2021'!X16</f>
         <v>589.58132194883137</v>
       </c>
-      <c r="N15" s="253">
+      <c r="N15" s="370">
         <f>'Index of Fisheries Dependency '!C13</f>
         <v>0.11235445544554455</v>
       </c>
       <c r="S15" s="218"/>
       <c r="T15" s="218"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="226">
+      <c r="C16" s="365">
         <v>1263</v>
       </c>
-      <c r="D16" s="226">
+      <c r="D16" s="368">
         <v>1030.8</v>
       </c>
-      <c r="E16" s="226">
+      <c r="E16" s="366">
         <v>2500</v>
       </c>
-      <c r="F16" s="227">
+      <c r="F16" s="371">
         <f>'Biomass Esitmation_ 2021'!X17</f>
         <v>3219.5255257258273</v>
       </c>
-      <c r="G16" s="253">
+      <c r="G16" s="375">
         <v>0.05</v>
       </c>
       <c r="I16" s="153" t="s">
@@ -6448,31 +6569,31 @@
         <f>'Biomass Esitmation_ 2021'!X17</f>
         <v>3219.5255257258273</v>
       </c>
-      <c r="N16" s="253">
+      <c r="N16" s="370">
         <f>'Index of Fisheries Dependency '!C14</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="S16" s="218"/>
       <c r="T16" s="218"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="226">
+      <c r="C17" s="363">
         <v>1480</v>
       </c>
-      <c r="D17" s="226">
+      <c r="D17" s="367">
         <v>1362</v>
       </c>
-      <c r="E17" s="226">
+      <c r="E17" s="363">
         <v>2500</v>
       </c>
-      <c r="F17" s="227">
+      <c r="F17" s="371">
         <f>'Biomass Esitmation_ 2021'!X18</f>
         <v>1545.5645318252782</v>
       </c>
-      <c r="G17" s="253">
+      <c r="G17" s="375">
         <v>0.08</v>
       </c>
       <c r="I17" s="153" t="s">
@@ -6491,31 +6612,31 @@
         <f>'Biomass Esitmation_ 2021'!X18</f>
         <v>1545.5645318252782</v>
       </c>
-      <c r="N17" s="253">
+      <c r="N17" s="370">
         <f>'Index of Fisheries Dependency '!C15</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="S17" s="218"/>
       <c r="T17" s="218"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="226">
+      <c r="C18" s="363">
         <v>7434.666666666667</v>
       </c>
-      <c r="D18" s="226">
+      <c r="D18" s="363">
         <v>7462.6</v>
       </c>
-      <c r="E18" s="226">
+      <c r="E18" s="363">
         <v>8376</v>
       </c>
-      <c r="F18" s="227">
+      <c r="F18" s="371">
         <f>'Biomass Esitmation_ 2021'!X19</f>
         <v>3043.0785532184341</v>
       </c>
-      <c r="G18" s="253">
+      <c r="G18" s="375">
         <v>0.02</v>
       </c>
       <c r="I18" s="153" t="s">
@@ -6534,31 +6655,31 @@
         <f>'Biomass Esitmation_ 2021'!X19</f>
         <v>3043.0785532184341</v>
       </c>
-      <c r="N18" s="253">
+      <c r="N18" s="370">
         <f>'Index of Fisheries Dependency '!C16</f>
         <v>2.3E-2</v>
       </c>
       <c r="S18" s="218"/>
       <c r="T18" s="218"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="228">
+      <c r="C19" s="364">
         <v>2069.6666666666665</v>
       </c>
-      <c r="D19" s="228">
+      <c r="D19" s="364">
         <v>2582.6</v>
       </c>
-      <c r="E19" s="228">
+      <c r="E19" s="364">
         <v>4824</v>
       </c>
-      <c r="F19" s="227">
+      <c r="F19" s="371">
         <f>'Biomass Esitmation_ 2021'!X20</f>
         <v>636.90412155866284</v>
       </c>
-      <c r="G19" s="254">
+      <c r="G19" s="376">
         <v>0.04</v>
       </c>
       <c r="I19" s="154" t="s">
@@ -6577,14 +6698,14 @@
         <f>'Biomass Esitmation_ 2021'!X20</f>
         <v>636.90412155866284</v>
       </c>
-      <c r="N19" s="253">
+      <c r="N19" s="370">
         <f>'Index of Fisheries Dependency '!C17</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="S19" s="218"/>
       <c r="T19" s="218"/>
     </row>
-    <row r="20" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="155" t="s">
         <v>45</v>
       </c>
@@ -6604,7 +6725,7 @@
         <f>SUM(F6:F19)</f>
         <v>63339.574694231989</v>
       </c>
-      <c r="G20" s="250">
+      <c r="G20" s="373">
         <f>SUM(G7:G19)</f>
         <v>0.66439999999999999</v>
       </c>
@@ -6634,20 +6755,20 @@
       <c r="S20" s="218"/>
       <c r="T20" s="218"/>
     </row>
-    <row r="21" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="332" t="s">
+    <row r="21" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="329" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="332"/>
-      <c r="D21" s="332"/>
-      <c r="E21" s="332"/>
-      <c r="F21" s="332"/>
-      <c r="G21" s="332"/>
-      <c r="H21" s="332"/>
-      <c r="I21" s="332"/>
+      <c r="C21" s="329"/>
+      <c r="D21" s="329"/>
+      <c r="E21" s="329"/>
+      <c r="F21" s="329"/>
+      <c r="G21" s="329"/>
+      <c r="H21" s="329"/>
+      <c r="I21" s="329"/>
       <c r="S21" s="218"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -6656,7 +6777,7 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -6665,7 +6786,7 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -6674,7 +6795,7 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -6683,7 +6804,7 @@
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D27" s="218"/>
       <c r="E27" s="218"/>
       <c r="H27" s="123"/>
@@ -6695,7 +6816,7 @@
       <c r="N27" s="123"/>
       <c r="O27" s="123"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D28" s="218"/>
       <c r="E28" s="218"/>
       <c r="H28" s="123"/>
@@ -6707,7 +6828,7 @@
       <c r="N28" s="123"/>
       <c r="O28" s="123"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D29" s="218"/>
       <c r="E29" s="218"/>
       <c r="H29" s="123"/>
@@ -6719,7 +6840,7 @@
       <c r="N29" s="123"/>
       <c r="O29" s="123"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E30" s="218"/>
       <c r="H30" s="123"/>
       <c r="I30" s="123"/>
@@ -6730,7 +6851,7 @@
       <c r="N30" s="123"/>
       <c r="O30" s="123"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D31" s="218"/>
       <c r="E31" s="218"/>
       <c r="H31" s="123"/>
@@ -6742,7 +6863,7 @@
       <c r="N31" s="123"/>
       <c r="O31" s="123"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E32" s="218"/>
       <c r="H32" s="123"/>
       <c r="I32" s="123"/>
@@ -6753,7 +6874,7 @@
       <c r="N32" s="123"/>
       <c r="O32" s="123"/>
     </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D33" s="218"/>
       <c r="E33" s="218"/>
       <c r="H33" s="123"/>
@@ -6765,7 +6886,7 @@
       <c r="N33" s="123"/>
       <c r="O33" s="123"/>
     </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D34" s="218"/>
       <c r="E34" s="218"/>
       <c r="H34" s="123"/>
@@ -6777,7 +6898,7 @@
       <c r="N34" s="123"/>
       <c r="O34" s="123"/>
     </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D35" s="218"/>
       <c r="E35" s="218"/>
       <c r="H35" s="123"/>
@@ -6789,7 +6910,7 @@
       <c r="N35" s="123"/>
       <c r="O35" s="123"/>
     </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D36" s="218"/>
       <c r="E36" s="218"/>
       <c r="H36" s="123"/>
@@ -6801,7 +6922,7 @@
       <c r="N36" s="123"/>
       <c r="O36" s="123"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" s="218"/>
       <c r="E37" s="218"/>
       <c r="H37" s="123"/>
@@ -6813,7 +6934,7 @@
       <c r="N37" s="123"/>
       <c r="O37" s="123"/>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="218"/>
       <c r="E38" s="218"/>
       <c r="H38" s="123"/>
@@ -6825,7 +6946,7 @@
       <c r="N38" s="123"/>
       <c r="O38" s="123"/>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39" s="218"/>
       <c r="E39" s="218"/>
       <c r="H39" s="123"/>
@@ -6837,7 +6958,7 @@
       <c r="N39" s="123"/>
       <c r="O39" s="123"/>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" s="218"/>
       <c r="E40" s="218"/>
       <c r="H40" s="123"/>
@@ -6849,7 +6970,7 @@
       <c r="N40" s="123"/>
       <c r="O40" s="123"/>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41" s="218"/>
       <c r="E41" s="218"/>
       <c r="H41" s="123"/>
@@ -6861,7 +6982,7 @@
       <c r="N41" s="123"/>
       <c r="O41" s="123"/>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42" s="218"/>
       <c r="E42" s="218"/>
       <c r="H42" s="123"/>
@@ -6888,37 +7009,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AE15" sqref="AE15"/>
+      <selection pane="bottomLeft" activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="31" customWidth="1"/>
-    <col min="4" max="5" width="8.6328125" style="31"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" customWidth="1"/>
-    <col min="8" max="17" width="6.6328125" customWidth="1"/>
-    <col min="18" max="18" width="6.6328125" style="12" customWidth="1"/>
-    <col min="19" max="23" width="6.6328125" customWidth="1"/>
-    <col min="24" max="26" width="6.6328125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="31" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="31"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" customWidth="1"/>
+    <col min="8" max="17" width="6.6640625" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="12" customWidth="1"/>
+    <col min="19" max="23" width="6.6640625" customWidth="1"/>
+    <col min="24" max="26" width="6.6640625" style="31" customWidth="1"/>
     <col min="27" max="29" width="8" style="31" customWidth="1"/>
     <col min="30" max="30" width="9" style="31" customWidth="1"/>
-    <col min="31" max="31" width="11.36328125" style="31" customWidth="1"/>
-    <col min="32" max="32" width="11.54296875" style="31" customWidth="1"/>
-    <col min="33" max="33" width="8.81640625" style="31" customWidth="1"/>
+    <col min="31" max="31" width="11.33203125" style="31" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="31" customWidth="1"/>
+    <col min="33" max="33" width="8.77734375" style="31" customWidth="1"/>
     <col min="34" max="35" width="10" style="31" customWidth="1"/>
-    <col min="36" max="36" width="3.54296875" style="31" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5546875" style="31" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="10" customWidth="1"/>
-    <col min="38" max="38" width="9.81640625" customWidth="1"/>
-    <col min="39" max="40" width="9.36328125" customWidth="1"/>
+    <col min="38" max="38" width="9.77734375" customWidth="1"/>
+    <col min="39" max="40" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F1" s="50" t="s">
         <v>62</v>
       </c>
@@ -6928,7 +7049,7 @@
       <c r="J1" s="50"/>
       <c r="R1" s="12"/>
     </row>
-    <row r="2" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="R2" s="12"/>
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
@@ -6951,7 +7072,7 @@
       <c r="BI2" s="33"/>
       <c r="BJ2" s="33"/>
     </row>
-    <row r="3" spans="1:62" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:62" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R3" s="12"/>
       <c r="AQ3" s="33"/>
       <c r="AR3" s="33"/>
@@ -6974,7 +7095,7 @@
       <c r="BI3" s="33"/>
       <c r="BJ3" s="33"/>
     </row>
-    <row r="4" spans="1:62" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:62" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="45" t="s">
@@ -6983,35 +7104,38 @@
       <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="348" t="s">
+      <c r="F4" s="331" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="26"/>
-      <c r="H4" s="354" t="s">
+      <c r="H4" s="337" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="355"/>
-      <c r="J4" s="355"/>
-      <c r="K4" s="355"/>
-      <c r="L4" s="355"/>
-      <c r="M4" s="355"/>
-      <c r="N4" s="355"/>
-      <c r="O4" s="355"/>
-      <c r="P4" s="355"/>
-      <c r="Q4" s="355"/>
-      <c r="R4" s="355"/>
-      <c r="S4" s="355"/>
-      <c r="T4" s="355"/>
-      <c r="U4" s="355"/>
-      <c r="V4" s="355"/>
-      <c r="W4" s="356"/>
-      <c r="X4" s="356"/>
-      <c r="Y4" s="356"/>
-      <c r="Z4" s="356"/>
+      <c r="I4" s="338"/>
+      <c r="J4" s="338"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="338"/>
+      <c r="M4" s="338"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
+      <c r="T4" s="338"/>
+      <c r="U4" s="338"/>
+      <c r="V4" s="338"/>
+      <c r="W4" s="339"/>
+      <c r="X4" s="339"/>
+      <c r="Y4" s="339"/>
+      <c r="Z4" s="339"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="37"/>
       <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
+      <c r="AD4" s="37">
+        <f>945+910+830</f>
+        <v>2685</v>
+      </c>
       <c r="AE4" s="37"/>
       <c r="AF4" s="37"/>
       <c r="AG4" s="37"/>
@@ -7042,7 +7166,7 @@
       <c r="BI4" s="33"/>
       <c r="BJ4" s="33"/>
     </row>
-    <row r="5" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -7055,7 +7179,7 @@
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="349"/>
+      <c r="F5" s="332"/>
       <c r="G5" s="54" t="s">
         <v>53</v>
       </c>
@@ -7089,42 +7213,45 @@
       <c r="Q5" s="65">
         <v>2009</v>
       </c>
-      <c r="R5" s="314">
+      <c r="R5" s="311">
         <f>SUM(2010)</f>
         <v>2010</v>
       </c>
-      <c r="S5" s="314">
+      <c r="S5" s="311">
         <v>2011</v>
       </c>
-      <c r="T5" s="314">
+      <c r="T5" s="311">
         <v>2012</v>
       </c>
-      <c r="U5" s="314">
+      <c r="U5" s="311">
         <v>2013</v>
       </c>
-      <c r="V5" s="315">
+      <c r="V5" s="312">
         <v>2014</v>
       </c>
-      <c r="W5" s="316">
+      <c r="W5" s="313">
         <v>2015</v>
       </c>
-      <c r="X5" s="314">
+      <c r="X5" s="311">
         <v>2016</v>
       </c>
-      <c r="Y5" s="314">
+      <c r="Y5" s="311">
         <v>2017</v>
       </c>
-      <c r="Z5" s="317">
+      <c r="Z5" s="314">
         <v>2018</v>
       </c>
-      <c r="AA5" s="318">
+      <c r="AA5" s="315">
         <v>2019</v>
       </c>
-      <c r="AB5" s="292">
+      <c r="AB5" s="289">
         <v>2020</v>
       </c>
       <c r="AC5" s="92"/>
-      <c r="AD5" s="37"/>
+      <c r="AD5" s="37">
+        <f>AD4/3</f>
+        <v>895</v>
+      </c>
       <c r="AE5" s="37"/>
       <c r="AF5" s="37"/>
       <c r="AG5" s="37"/>
@@ -7155,7 +7282,7 @@
       <c r="BI5" s="33"/>
       <c r="BJ5" s="33"/>
     </row>
-    <row r="6" spans="1:62" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:62" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
         <v>14</v>
       </c>
@@ -7206,52 +7333,52 @@
       <c r="Q6" s="57">
         <v>3188</v>
       </c>
-      <c r="R6" s="319">
+      <c r="R6" s="316">
         <v>2838</v>
       </c>
-      <c r="S6" s="319">
+      <c r="S6" s="316">
         <v>1784</v>
       </c>
-      <c r="T6" s="319">
+      <c r="T6" s="316">
         <v>2416</v>
       </c>
-      <c r="U6" s="319">
+      <c r="U6" s="316">
         <v>1769</v>
       </c>
-      <c r="V6" s="320">
+      <c r="V6" s="317">
         <v>1377</v>
       </c>
-      <c r="W6" s="321">
+      <c r="W6" s="318">
         <v>1760</v>
       </c>
-      <c r="X6" s="319">
+      <c r="X6" s="316">
         <v>1511</v>
       </c>
-      <c r="Y6" s="319">
+      <c r="Y6" s="316">
         <v>1511</v>
       </c>
-      <c r="Z6" s="322">
+      <c r="Z6" s="319">
         <v>1552</v>
       </c>
-      <c r="AA6" s="323">
+      <c r="AA6" s="320">
         <v>1062</v>
       </c>
-      <c r="AB6" s="293">
+      <c r="AB6" s="290">
         <v>513</v>
       </c>
       <c r="AC6" s="84"/>
       <c r="AD6" s="150"/>
-      <c r="AE6" s="298" t="s">
+      <c r="AE6" s="295" t="s">
         <v>109</v>
       </c>
-      <c r="AF6" s="299" t="s">
+      <c r="AF6" s="296" t="s">
         <v>110</v>
       </c>
-      <c r="AG6" s="303"/>
-      <c r="AH6" s="303"/>
-      <c r="AI6" s="303"/>
+      <c r="AG6" s="300"/>
+      <c r="AH6" s="300"/>
+      <c r="AI6" s="300"/>
       <c r="AJ6" s="90"/>
-      <c r="AK6" s="304"/>
+      <c r="AK6" s="301"/>
       <c r="AL6" s="48"/>
       <c r="AM6" s="3"/>
       <c r="AQ6" s="33"/>
@@ -7275,7 +7402,7 @@
       <c r="BI6" s="33"/>
       <c r="BJ6" s="33"/>
     </row>
-    <row r="7" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
@@ -7326,37 +7453,37 @@
       <c r="Q7" s="57">
         <v>1471</v>
       </c>
-      <c r="R7" s="319">
+      <c r="R7" s="316">
         <v>745</v>
       </c>
-      <c r="S7" s="319">
+      <c r="S7" s="316">
         <v>652</v>
       </c>
-      <c r="T7" s="319">
+      <c r="T7" s="316">
         <v>702</v>
       </c>
-      <c r="U7" s="319">
+      <c r="U7" s="316">
         <v>757</v>
       </c>
-      <c r="V7" s="320">
+      <c r="V7" s="317">
         <v>728</v>
       </c>
-      <c r="W7" s="321">
+      <c r="W7" s="318">
         <v>945</v>
       </c>
-      <c r="X7" s="319">
+      <c r="X7" s="316">
         <v>910</v>
       </c>
-      <c r="Y7" s="319">
+      <c r="Y7" s="316">
         <v>830</v>
       </c>
-      <c r="Z7" s="319">
+      <c r="Z7" s="316">
         <v>751</v>
       </c>
-      <c r="AA7" s="324">
+      <c r="AA7" s="321">
         <v>796</v>
       </c>
-      <c r="AB7" s="294">
+      <c r="AB7" s="291">
         <v>1158</v>
       </c>
       <c r="AC7" s="84"/>
@@ -7367,15 +7494,15 @@
         <f>SUM(W7,X7,Y7)/3</f>
         <v>895</v>
       </c>
-      <c r="AF7" s="300">
+      <c r="AF7" s="297">
         <f>SUM(N7,Q7,O7,P7,W7)/5</f>
         <v>1613</v>
       </c>
-      <c r="AG7" s="305"/>
-      <c r="AH7" s="306"/>
-      <c r="AI7" s="307"/>
+      <c r="AG7" s="302"/>
+      <c r="AH7" s="303"/>
+      <c r="AI7" s="304"/>
       <c r="AJ7" s="90"/>
-      <c r="AK7" s="304"/>
+      <c r="AK7" s="301"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AQ7" s="33"/>
@@ -7399,7 +7526,7 @@
       <c r="BI7" s="33"/>
       <c r="BJ7" s="33"/>
     </row>
-    <row r="8" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
         <v>2</v>
       </c>
@@ -7448,37 +7575,37 @@
       <c r="Q8" s="57">
         <v>4643</v>
       </c>
-      <c r="R8" s="319">
+      <c r="R8" s="316">
         <v>4911</v>
       </c>
-      <c r="S8" s="319">
+      <c r="S8" s="316">
         <v>5559</v>
       </c>
-      <c r="T8" s="319">
+      <c r="T8" s="316">
         <v>10627</v>
       </c>
-      <c r="U8" s="319">
+      <c r="U8" s="316">
         <v>5985</v>
       </c>
-      <c r="V8" s="320">
+      <c r="V8" s="317">
         <v>4483</v>
       </c>
-      <c r="W8" s="321">
+      <c r="W8" s="318">
         <v>4556</v>
       </c>
-      <c r="X8" s="319">
+      <c r="X8" s="316">
         <v>4757</v>
       </c>
-      <c r="Y8" s="319">
+      <c r="Y8" s="316">
         <v>3310</v>
       </c>
-      <c r="Z8" s="319">
+      <c r="Z8" s="316">
         <v>4715</v>
       </c>
-      <c r="AA8" s="324">
+      <c r="AA8" s="321">
         <v>5302</v>
       </c>
-      <c r="AB8" s="294">
+      <c r="AB8" s="291">
         <v>2441</v>
       </c>
       <c r="AC8" s="84"/>
@@ -7489,15 +7616,15 @@
         <f>SUM(T8,U8,S8)/3</f>
         <v>7390.333333333333</v>
       </c>
-      <c r="AF8" s="300">
+      <c r="AF8" s="297">
         <f>SUM(T8,S8,U8,AA8,R8)/5</f>
         <v>6476.8</v>
       </c>
-      <c r="AG8" s="305"/>
-      <c r="AH8" s="306"/>
-      <c r="AI8" s="307"/>
+      <c r="AG8" s="302"/>
+      <c r="AH8" s="303"/>
+      <c r="AI8" s="304"/>
       <c r="AJ8" s="90"/>
-      <c r="AK8" s="304"/>
+      <c r="AK8" s="301"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AQ8" s="33"/>
@@ -7521,7 +7648,7 @@
       <c r="BI8" s="33"/>
       <c r="BJ8" s="33"/>
     </row>
-    <row r="9" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>3</v>
       </c>
@@ -7572,37 +7699,37 @@
       <c r="Q9" s="57">
         <v>5609</v>
       </c>
-      <c r="R9" s="319">
+      <c r="R9" s="316">
         <v>5771</v>
       </c>
-      <c r="S9" s="319">
+      <c r="S9" s="316">
         <v>4165</v>
       </c>
-      <c r="T9" s="319">
+      <c r="T9" s="316">
         <v>4165</v>
       </c>
-      <c r="U9" s="319">
+      <c r="U9" s="316">
         <v>3642</v>
       </c>
-      <c r="V9" s="320">
+      <c r="V9" s="317">
         <v>3916</v>
       </c>
-      <c r="W9" s="321">
+      <c r="W9" s="318">
         <v>5643</v>
       </c>
-      <c r="X9" s="319">
+      <c r="X9" s="316">
         <v>4783</v>
       </c>
-      <c r="Y9" s="319">
+      <c r="Y9" s="316">
         <v>5871</v>
       </c>
-      <c r="Z9" s="319">
+      <c r="Z9" s="316">
         <v>5466</v>
       </c>
-      <c r="AA9" s="324">
+      <c r="AA9" s="321">
         <v>5140</v>
       </c>
-      <c r="AB9" s="294">
+      <c r="AB9" s="291">
         <v>3826</v>
       </c>
       <c r="AC9" s="84"/>
@@ -7613,15 +7740,15 @@
         <f>SUM(Y9,W9,R9)/3</f>
         <v>5761.666666666667</v>
       </c>
-      <c r="AF9" s="300">
+      <c r="AF9" s="297">
         <f>SUM(R9,W9,Y9,Q9,M9)/5</f>
         <v>5698.4</v>
       </c>
-      <c r="AG9" s="305"/>
-      <c r="AH9" s="306"/>
-      <c r="AI9" s="307"/>
+      <c r="AG9" s="302"/>
+      <c r="AH9" s="303"/>
+      <c r="AI9" s="304"/>
       <c r="AJ9" s="90"/>
-      <c r="AK9" s="304"/>
+      <c r="AK9" s="301"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AQ9" s="33"/>
@@ -7645,7 +7772,7 @@
       <c r="BI9" s="33"/>
       <c r="BJ9" s="33"/>
     </row>
-    <row r="10" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43" t="s">
         <v>47</v>
       </c>
@@ -7696,37 +7823,37 @@
       <c r="Q10" s="58">
         <v>30260</v>
       </c>
-      <c r="R10" s="319">
+      <c r="R10" s="316">
         <v>40349</v>
       </c>
-      <c r="S10" s="319">
+      <c r="S10" s="316">
         <v>22910</v>
       </c>
-      <c r="T10" s="319">
+      <c r="T10" s="316">
         <v>29764</v>
       </c>
-      <c r="U10" s="319">
+      <c r="U10" s="316">
         <v>29698</v>
       </c>
-      <c r="V10" s="320">
+      <c r="V10" s="317">
         <v>19984</v>
       </c>
-      <c r="W10" s="321">
+      <c r="W10" s="318">
         <v>23045</v>
       </c>
-      <c r="X10" s="319">
+      <c r="X10" s="316">
         <v>16818</v>
       </c>
-      <c r="Y10" s="319">
+      <c r="Y10" s="316">
         <v>35799</v>
       </c>
-      <c r="Z10" s="325">
+      <c r="Z10" s="322">
         <v>27400</v>
       </c>
-      <c r="AA10" s="326">
+      <c r="AA10" s="323">
         <v>31355</v>
       </c>
-      <c r="AB10" s="295">
+      <c r="AB10" s="292">
         <v>28199</v>
       </c>
       <c r="AC10" s="93"/>
@@ -7737,15 +7864,15 @@
         <f>SUM(X11,W11,R11)/3</f>
         <v>2873.3333333333335</v>
       </c>
-      <c r="AF10" s="300">
+      <c r="AF10" s="297">
         <f>SUM(X11,W11,R11,V11,T11)/5</f>
         <v>2219.1999999999998</v>
       </c>
-      <c r="AG10" s="305"/>
-      <c r="AH10" s="306"/>
-      <c r="AI10" s="307"/>
+      <c r="AG10" s="302"/>
+      <c r="AH10" s="303"/>
+      <c r="AI10" s="304"/>
       <c r="AJ10" s="90"/>
-      <c r="AK10" s="304"/>
+      <c r="AK10" s="301"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AQ10" s="33"/>
@@ -7769,7 +7896,7 @@
       <c r="BI10" s="33"/>
       <c r="BJ10" s="33"/>
     </row>
-    <row r="11" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>13</v>
       </c>
@@ -7820,37 +7947,37 @@
       <c r="Q11" s="57">
         <v>1125</v>
       </c>
-      <c r="R11" s="319">
+      <c r="R11" s="316">
         <v>1290</v>
       </c>
-      <c r="S11" s="319">
+      <c r="S11" s="316">
         <v>550</v>
       </c>
-      <c r="T11" s="319">
+      <c r="T11" s="316">
         <v>1218</v>
       </c>
-      <c r="U11" s="319">
+      <c r="U11" s="316">
         <v>828</v>
       </c>
-      <c r="V11" s="320">
+      <c r="V11" s="317">
         <v>1258</v>
       </c>
-      <c r="W11" s="321">
+      <c r="W11" s="318">
         <v>2578</v>
       </c>
-      <c r="X11" s="319">
+      <c r="X11" s="316">
         <v>4752</v>
       </c>
-      <c r="Y11" s="319">
+      <c r="Y11" s="316">
         <v>426</v>
       </c>
-      <c r="Z11" s="319">
+      <c r="Z11" s="316">
         <v>72</v>
       </c>
-      <c r="AA11" s="324">
+      <c r="AA11" s="321">
         <v>1127</v>
       </c>
-      <c r="AB11" s="294">
+      <c r="AB11" s="291">
         <v>2837</v>
       </c>
       <c r="AC11" s="84"/>
@@ -7861,15 +7988,15 @@
         <f>SUM(U13,Z13,AA13)/3</f>
         <v>370.66666666666669</v>
       </c>
-      <c r="AF11" s="300">
+      <c r="AF11" s="298">
         <f>SUM(P13,AA13,Z13,U13,N13)/5</f>
         <v>341.4</v>
       </c>
-      <c r="AG11" s="305"/>
-      <c r="AH11" s="306"/>
-      <c r="AI11" s="307"/>
+      <c r="AG11" s="302"/>
+      <c r="AH11" s="303"/>
+      <c r="AI11" s="304"/>
       <c r="AJ11" s="90"/>
-      <c r="AK11" s="304"/>
+      <c r="AK11" s="301"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AQ11" s="33"/>
@@ -7893,7 +8020,7 @@
       <c r="BI11" s="33"/>
       <c r="BJ11" s="33"/>
     </row>
-    <row r="12" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43" t="s">
         <v>16</v>
       </c>
@@ -7944,56 +8071,56 @@
       <c r="Q12" s="57">
         <v>1611</v>
       </c>
-      <c r="R12" s="319">
+      <c r="R12" s="316">
         <v>1932</v>
       </c>
-      <c r="S12" s="319">
+      <c r="S12" s="316">
         <v>1734</v>
       </c>
-      <c r="T12" s="319">
+      <c r="T12" s="316">
         <v>1711</v>
       </c>
-      <c r="U12" s="319">
+      <c r="U12" s="316">
         <v>1713</v>
       </c>
-      <c r="V12" s="320">
+      <c r="V12" s="317">
         <v>1628</v>
       </c>
-      <c r="W12" s="321">
+      <c r="W12" s="318">
         <v>1578</v>
       </c>
-      <c r="X12" s="319">
+      <c r="X12" s="316">
         <v>1745</v>
       </c>
-      <c r="Y12" s="319">
+      <c r="Y12" s="316">
         <v>1719</v>
       </c>
-      <c r="Z12" s="319">
+      <c r="Z12" s="316">
         <v>1742</v>
       </c>
-      <c r="AA12" s="324">
+      <c r="AA12" s="321">
         <v>2009</v>
       </c>
-      <c r="AB12" s="296">
+      <c r="AB12" s="293">
         <v>1896</v>
       </c>
       <c r="AC12" s="84"/>
       <c r="AD12" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="AE12" s="226">
+      <c r="AE12" s="297">
         <f>SUM(AA14,R14,S14)/3</f>
         <v>574.33333333333337</v>
       </c>
-      <c r="AF12" s="300">
+      <c r="AF12" s="362">
         <f>SUM(N14,AA14,R14,S14,Q14)/5</f>
         <v>528.20000000000005</v>
       </c>
-      <c r="AG12" s="305"/>
-      <c r="AH12" s="306"/>
-      <c r="AI12" s="307"/>
+      <c r="AG12" s="360"/>
+      <c r="AH12" s="303"/>
+      <c r="AI12" s="304"/>
       <c r="AJ12" s="90"/>
-      <c r="AK12" s="304"/>
+      <c r="AK12" s="301"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AQ12" s="33"/>
@@ -8017,7 +8144,7 @@
       <c r="BI12" s="33"/>
       <c r="BJ12" s="33"/>
     </row>
-    <row r="13" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
         <v>4</v>
       </c>
@@ -8068,56 +8195,56 @@
       <c r="Q13" s="57">
         <v>241</v>
       </c>
-      <c r="R13" s="319">
+      <c r="R13" s="316">
         <v>196</v>
       </c>
-      <c r="S13" s="319">
-        <v>0</v>
-      </c>
-      <c r="T13" s="319">
-        <v>0</v>
-      </c>
-      <c r="U13" s="319">
+      <c r="S13" s="316">
+        <v>0</v>
+      </c>
+      <c r="T13" s="316">
+        <v>0</v>
+      </c>
+      <c r="U13" s="316">
         <v>362</v>
       </c>
-      <c r="V13" s="320">
+      <c r="V13" s="317">
         <v>208</v>
       </c>
-      <c r="W13" s="321">
+      <c r="W13" s="318">
         <v>196</v>
       </c>
-      <c r="X13" s="319">
+      <c r="X13" s="316">
         <v>88</v>
       </c>
-      <c r="Y13" s="319">
+      <c r="Y13" s="316">
         <v>14</v>
       </c>
-      <c r="Z13" s="319">
+      <c r="Z13" s="316">
         <v>364</v>
       </c>
-      <c r="AA13" s="324">
+      <c r="AA13" s="321">
         <v>386</v>
       </c>
-      <c r="AB13" s="294">
+      <c r="AB13" s="291">
         <v>165</v>
       </c>
       <c r="AC13" s="84"/>
       <c r="AD13" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="AE13" s="226">
+      <c r="AE13" s="297">
         <f>SUM(X16,Y16,Z16)/3</f>
         <v>1416.3333333333333</v>
       </c>
-      <c r="AF13" s="300">
+      <c r="AF13" s="362">
         <f>SUM(M16,O16,Y16,N16,X16)/5</f>
         <v>1737.6</v>
       </c>
-      <c r="AG13" s="305"/>
-      <c r="AH13" s="306"/>
-      <c r="AI13" s="307"/>
+      <c r="AG13" s="360"/>
+      <c r="AH13" s="303"/>
+      <c r="AI13" s="304"/>
       <c r="AJ13" s="90"/>
-      <c r="AK13" s="304"/>
+      <c r="AK13" s="301"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AQ13" s="33"/>
@@ -8141,7 +8268,7 @@
       <c r="BI13" s="33"/>
       <c r="BJ13" s="33"/>
     </row>
-    <row r="14" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43" t="s">
         <v>5</v>
       </c>
@@ -8192,37 +8319,37 @@
       <c r="Q14" s="57">
         <v>422</v>
       </c>
-      <c r="R14" s="319">
+      <c r="R14" s="316">
         <v>460</v>
       </c>
-      <c r="S14" s="319">
+      <c r="S14" s="316">
         <v>418</v>
       </c>
-      <c r="T14" s="319">
+      <c r="T14" s="316">
         <v>266</v>
       </c>
-      <c r="U14" s="319">
+      <c r="U14" s="316">
         <v>302</v>
       </c>
-      <c r="V14" s="320">
+      <c r="V14" s="317">
         <v>311</v>
       </c>
-      <c r="W14" s="321">
+      <c r="W14" s="318">
         <v>223</v>
       </c>
-      <c r="X14" s="319">
+      <c r="X14" s="316">
         <v>233</v>
       </c>
-      <c r="Y14" s="319">
+      <c r="Y14" s="316">
         <v>181</v>
       </c>
-      <c r="Z14" s="319">
+      <c r="Z14" s="316">
         <v>239</v>
       </c>
-      <c r="AA14" s="324">
+      <c r="AA14" s="321">
         <v>845</v>
       </c>
-      <c r="AB14" s="294">
+      <c r="AB14" s="291">
         <v>171</v>
       </c>
       <c r="AC14" s="84"/>
@@ -8233,15 +8360,15 @@
         <f>SUM(V17,U17,T17)/3</f>
         <v>10119</v>
       </c>
-      <c r="AF14" s="300">
+      <c r="AF14" s="361">
         <f>SUM(V17,Q17,U17,T17,Z17)/5</f>
         <v>9498.2000000000007</v>
       </c>
-      <c r="AG14" s="305"/>
-      <c r="AH14" s="306"/>
-      <c r="AI14" s="307"/>
+      <c r="AG14" s="302"/>
+      <c r="AH14" s="303"/>
+      <c r="AI14" s="304"/>
       <c r="AJ14" s="90"/>
-      <c r="AK14" s="304"/>
+      <c r="AK14" s="301"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AQ14" s="33"/>
@@ -8265,7 +8392,7 @@
       <c r="BI14" s="33"/>
       <c r="BJ14" s="33"/>
     </row>
-    <row r="15" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43" t="s">
         <v>15</v>
       </c>
@@ -8316,37 +8443,37 @@
       <c r="Q15" s="57">
         <v>3560</v>
       </c>
-      <c r="R15" s="319">
+      <c r="R15" s="316">
         <v>3482</v>
       </c>
-      <c r="S15" s="319">
+      <c r="S15" s="316">
         <v>3224</v>
       </c>
-      <c r="T15" s="319">
+      <c r="T15" s="316">
         <v>3591</v>
       </c>
-      <c r="U15" s="319">
+      <c r="U15" s="316">
         <v>3495</v>
       </c>
-      <c r="V15" s="320">
+      <c r="V15" s="317">
         <v>3744</v>
       </c>
-      <c r="W15" s="321">
+      <c r="W15" s="318">
         <v>3418</v>
       </c>
-      <c r="X15" s="319">
+      <c r="X15" s="316">
         <v>3276</v>
       </c>
-      <c r="Y15" s="319">
+      <c r="Y15" s="316">
         <v>2148</v>
       </c>
-      <c r="Z15" s="319">
+      <c r="Z15" s="316">
         <v>3058</v>
       </c>
-      <c r="AA15" s="324">
+      <c r="AA15" s="321">
         <v>3439</v>
       </c>
-      <c r="AB15" s="294">
+      <c r="AB15" s="291">
         <v>2812</v>
       </c>
       <c r="AC15" s="84"/>
@@ -8357,15 +8484,15 @@
         <f>SUM(AA18,X18,W18)/3</f>
         <v>2094.6666666666665</v>
       </c>
-      <c r="AF15" s="300">
+      <c r="AF15" s="297">
         <f>SUM(W18,X18,Y18,AA18,Z18)/5</f>
         <v>1715.6</v>
       </c>
-      <c r="AG15" s="305"/>
-      <c r="AH15" s="306"/>
-      <c r="AI15" s="307"/>
+      <c r="AG15" s="302"/>
+      <c r="AH15" s="303"/>
+      <c r="AI15" s="304"/>
       <c r="AJ15" s="90"/>
-      <c r="AK15" s="304"/>
+      <c r="AK15" s="301"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AQ15" s="33"/>
@@ -8389,7 +8516,7 @@
       <c r="BI15" s="33"/>
       <c r="BJ15" s="33"/>
     </row>
-    <row r="16" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
         <v>6</v>
       </c>
@@ -8440,37 +8567,37 @@
       <c r="Q16" s="57">
         <v>864</v>
       </c>
-      <c r="R16" s="319">
+      <c r="R16" s="316">
         <v>795</v>
       </c>
-      <c r="S16" s="319">
+      <c r="S16" s="316">
         <v>294</v>
       </c>
-      <c r="T16" s="319">
+      <c r="T16" s="316">
         <v>801</v>
       </c>
-      <c r="U16" s="319">
+      <c r="U16" s="316">
         <v>237</v>
       </c>
-      <c r="V16" s="320">
+      <c r="V16" s="317">
         <v>310</v>
       </c>
-      <c r="W16" s="321">
+      <c r="W16" s="318">
         <v>459</v>
       </c>
-      <c r="X16" s="319">
+      <c r="X16" s="316">
         <v>1185</v>
       </c>
-      <c r="Y16" s="319">
+      <c r="Y16" s="316">
         <v>1613</v>
       </c>
-      <c r="Z16" s="319">
+      <c r="Z16" s="316">
         <v>1451</v>
       </c>
-      <c r="AA16" s="324">
+      <c r="AA16" s="321">
         <v>756</v>
       </c>
-      <c r="AB16" s="294">
+      <c r="AB16" s="291">
         <v>753</v>
       </c>
       <c r="AC16" s="84"/>
@@ -8481,15 +8608,15 @@
         <f>SUM(U19,AA19,X19)/3</f>
         <v>1263</v>
       </c>
-      <c r="AF16" s="300">
+      <c r="AF16" s="297">
         <f>SUM(U19,X19,W19,T19,AA19)/5</f>
         <v>1051.8</v>
       </c>
-      <c r="AG16" s="305"/>
-      <c r="AH16" s="306"/>
-      <c r="AI16" s="307"/>
+      <c r="AG16" s="302"/>
+      <c r="AH16" s="303"/>
+      <c r="AI16" s="304"/>
       <c r="AJ16" s="90"/>
-      <c r="AK16" s="304"/>
+      <c r="AK16" s="301"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AQ16" s="33"/>
@@ -8513,7 +8640,7 @@
       <c r="BI16" s="33"/>
       <c r="BJ16" s="33"/>
     </row>
-    <row r="17" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
@@ -8564,37 +8691,37 @@
       <c r="Q17" s="57">
         <v>10112</v>
       </c>
-      <c r="R17" s="319">
+      <c r="R17" s="316">
         <v>6021</v>
       </c>
-      <c r="S17" s="319">
+      <c r="S17" s="316">
         <v>6424</v>
       </c>
-      <c r="T17" s="319">
+      <c r="T17" s="316">
         <v>8172</v>
       </c>
-      <c r="U17" s="319">
+      <c r="U17" s="316">
         <v>9074</v>
       </c>
-      <c r="V17" s="320">
+      <c r="V17" s="317">
         <v>13111</v>
       </c>
-      <c r="W17" s="321">
+      <c r="W17" s="318">
         <v>6887</v>
       </c>
-      <c r="X17" s="319">
+      <c r="X17" s="316">
         <v>3748</v>
       </c>
-      <c r="Y17" s="319">
+      <c r="Y17" s="316">
         <v>5548</v>
       </c>
-      <c r="Z17" s="319">
+      <c r="Z17" s="316">
         <v>7022</v>
       </c>
-      <c r="AA17" s="324">
+      <c r="AA17" s="321">
         <v>4498</v>
       </c>
-      <c r="AB17" s="294">
+      <c r="AB17" s="291">
         <v>3793</v>
       </c>
       <c r="AC17" s="84"/>
@@ -8605,15 +8732,15 @@
         <f>SUM(X20,U20,AA20)/3</f>
         <v>1480</v>
       </c>
-      <c r="AF17" s="300">
+      <c r="AF17" s="297">
         <f>SUM(AA20,Y20,U20,X20,Z20)/5</f>
         <v>1362</v>
       </c>
-      <c r="AG17" s="305"/>
-      <c r="AH17" s="306"/>
-      <c r="AI17" s="307"/>
+      <c r="AG17" s="302"/>
+      <c r="AH17" s="303"/>
+      <c r="AI17" s="304"/>
       <c r="AJ17" s="90"/>
-      <c r="AK17" s="304"/>
+      <c r="AK17" s="301"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AQ17" s="33"/>
@@ -8637,7 +8764,7 @@
       <c r="BI17" s="33"/>
       <c r="BJ17" s="33"/>
     </row>
-    <row r="18" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
         <v>8</v>
       </c>
@@ -8674,37 +8801,37 @@
       <c r="Q18" s="57">
         <v>0</v>
       </c>
-      <c r="R18" s="319">
-        <v>0</v>
-      </c>
-      <c r="S18" s="319">
+      <c r="R18" s="316">
+        <v>0</v>
+      </c>
+      <c r="S18" s="316">
         <v>108</v>
       </c>
-      <c r="T18" s="319">
+      <c r="T18" s="316">
         <v>250</v>
       </c>
-      <c r="U18" s="319">
-        <v>0</v>
-      </c>
-      <c r="V18" s="320">
+      <c r="U18" s="316">
+        <v>0</v>
+      </c>
+      <c r="V18" s="317">
         <v>7</v>
       </c>
-      <c r="W18" s="321">
+      <c r="W18" s="318">
         <v>1867</v>
       </c>
-      <c r="X18" s="319">
+      <c r="X18" s="316">
         <v>2447</v>
       </c>
-      <c r="Y18" s="319">
+      <c r="Y18" s="316">
         <v>1662</v>
       </c>
-      <c r="Z18" s="319">
+      <c r="Z18" s="316">
         <v>632</v>
       </c>
-      <c r="AA18" s="324">
+      <c r="AA18" s="321">
         <v>1970</v>
       </c>
-      <c r="AB18" s="294">
+      <c r="AB18" s="291">
         <v>1066</v>
       </c>
       <c r="AC18" s="84"/>
@@ -8715,15 +8842,15 @@
         <f>SUM(Y21,U21,X21)/3</f>
         <v>7434.666666666667</v>
       </c>
-      <c r="AF18" s="300">
+      <c r="AF18" s="297">
         <f>SUM(Y21,X21,U21,M21,N21)/5</f>
         <v>7462.6</v>
       </c>
-      <c r="AG18" s="305"/>
-      <c r="AH18" s="306"/>
-      <c r="AI18" s="307"/>
+      <c r="AG18" s="302"/>
+      <c r="AH18" s="303"/>
+      <c r="AI18" s="304"/>
       <c r="AJ18" s="90"/>
-      <c r="AK18" s="304"/>
+      <c r="AK18" s="301"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AQ18" s="33"/>
@@ -8747,7 +8874,7 @@
       <c r="BI18" s="33"/>
       <c r="BJ18" s="33"/>
     </row>
-    <row r="19" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
         <v>9</v>
       </c>
@@ -8798,37 +8925,37 @@
       <c r="Q19" s="57">
         <v>124</v>
       </c>
-      <c r="R19" s="319">
+      <c r="R19" s="316">
         <v>57</v>
       </c>
-      <c r="S19" s="319">
+      <c r="S19" s="316">
         <v>36</v>
       </c>
-      <c r="T19" s="319">
+      <c r="T19" s="316">
         <v>760</v>
       </c>
-      <c r="U19" s="319">
+      <c r="U19" s="316">
         <v>1471</v>
       </c>
-      <c r="V19" s="320">
+      <c r="V19" s="317">
         <v>264</v>
       </c>
-      <c r="W19" s="321">
+      <c r="W19" s="318">
         <v>710</v>
       </c>
-      <c r="X19" s="319">
+      <c r="X19" s="316">
         <v>1105</v>
       </c>
-      <c r="Y19" s="319">
+      <c r="Y19" s="316">
         <v>611</v>
       </c>
-      <c r="Z19" s="319">
+      <c r="Z19" s="316">
         <v>655</v>
       </c>
-      <c r="AA19" s="324">
+      <c r="AA19" s="321">
         <v>1213</v>
       </c>
-      <c r="AB19" s="296">
+      <c r="AB19" s="293">
         <v>829</v>
       </c>
       <c r="AC19" s="84"/>
@@ -8839,15 +8966,15 @@
         <f>SUM(R22,T22,U22)/3</f>
         <v>2069.6666666666665</v>
       </c>
-      <c r="AF19" s="301">
+      <c r="AF19" s="298">
         <f>SUM(O22,Q22,R22,P22,N22)/5</f>
         <v>2582.6</v>
       </c>
-      <c r="AG19" s="305"/>
-      <c r="AH19" s="306"/>
-      <c r="AI19" s="307"/>
+      <c r="AG19" s="302"/>
+      <c r="AH19" s="303"/>
+      <c r="AI19" s="304"/>
       <c r="AJ19" s="90"/>
-      <c r="AK19" s="304"/>
+      <c r="AK19" s="301"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AQ19" s="33"/>
@@ -8871,7 +8998,7 @@
       <c r="BI19" s="33"/>
       <c r="BJ19" s="33"/>
     </row>
-    <row r="20" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43" t="s">
         <v>10</v>
       </c>
@@ -8922,37 +9049,37 @@
       <c r="Q20" s="57">
         <v>351</v>
       </c>
-      <c r="R20" s="319">
+      <c r="R20" s="316">
         <v>675</v>
       </c>
-      <c r="S20" s="319">
+      <c r="S20" s="316">
         <v>467</v>
       </c>
-      <c r="T20" s="319">
+      <c r="T20" s="316">
         <v>930</v>
       </c>
-      <c r="U20" s="319">
+      <c r="U20" s="316">
         <v>1491</v>
       </c>
-      <c r="V20" s="320">
+      <c r="V20" s="317">
         <v>475</v>
       </c>
-      <c r="W20" s="321">
+      <c r="W20" s="318">
         <v>406</v>
       </c>
-      <c r="X20" s="319">
+      <c r="X20" s="316">
         <v>1501</v>
       </c>
-      <c r="Y20" s="319">
+      <c r="Y20" s="316">
         <v>1426</v>
       </c>
-      <c r="Z20" s="319">
+      <c r="Z20" s="316">
         <v>944</v>
       </c>
-      <c r="AA20" s="324">
+      <c r="AA20" s="321">
         <v>1448</v>
       </c>
-      <c r="AB20" s="294">
+      <c r="AB20" s="291">
         <v>665</v>
       </c>
       <c r="AC20" s="84"/>
@@ -8963,15 +9090,15 @@
         <f>SUM(AE7:AE19)</f>
         <v>43742.666666666657</v>
       </c>
-      <c r="AF20" s="302">
+      <c r="AF20" s="299">
         <f>SUM(AF7:AF19)</f>
         <v>42287.399999999994</v>
       </c>
-      <c r="AG20" s="308"/>
-      <c r="AH20" s="309"/>
-      <c r="AI20" s="310"/>
+      <c r="AG20" s="305"/>
+      <c r="AH20" s="306"/>
+      <c r="AI20" s="307"/>
       <c r="AJ20" s="90"/>
-      <c r="AK20" s="304"/>
+      <c r="AK20" s="301"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AQ20" s="33"/>
@@ -8995,7 +9122,7 @@
       <c r="BI20" s="33"/>
       <c r="BJ20" s="33"/>
     </row>
-    <row r="21" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
         <v>11</v>
       </c>
@@ -9046,48 +9173,48 @@
       <c r="Q21" s="57">
         <v>5493</v>
       </c>
-      <c r="R21" s="319">
+      <c r="R21" s="316">
         <v>4790</v>
       </c>
-      <c r="S21" s="319">
+      <c r="S21" s="316">
         <v>6077</v>
       </c>
-      <c r="T21" s="319">
+      <c r="T21" s="316">
         <v>4281</v>
       </c>
-      <c r="U21" s="319">
+      <c r="U21" s="316">
         <v>6819</v>
       </c>
-      <c r="V21" s="320">
+      <c r="V21" s="317">
         <v>6604</v>
       </c>
-      <c r="W21" s="321">
+      <c r="W21" s="318">
         <v>5419</v>
       </c>
-      <c r="X21" s="319">
+      <c r="X21" s="316">
         <v>7513</v>
       </c>
-      <c r="Y21" s="319">
+      <c r="Y21" s="316">
         <v>7972</v>
       </c>
-      <c r="Z21" s="319">
+      <c r="Z21" s="316">
         <v>5602</v>
       </c>
-      <c r="AA21" s="324">
+      <c r="AA21" s="321">
         <v>3195</v>
       </c>
-      <c r="AB21" s="294">
+      <c r="AB21" s="291">
         <v>5180</v>
       </c>
       <c r="AC21" s="84"/>
       <c r="AD21" s="37"/>
       <c r="AE21" s="37"/>
       <c r="AF21" s="37"/>
-      <c r="AG21" s="311"/>
-      <c r="AH21" s="312"/>
-      <c r="AI21" s="311"/>
+      <c r="AG21" s="308"/>
+      <c r="AH21" s="309"/>
+      <c r="AI21" s="308"/>
       <c r="AJ21" s="90"/>
-      <c r="AK21" s="304"/>
+      <c r="AK21" s="301"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AQ21" s="33"/>
@@ -9111,7 +9238,7 @@
       <c r="BI21" s="33"/>
       <c r="BJ21" s="33"/>
     </row>
-    <row r="22" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
         <v>12</v>
       </c>
@@ -9162,51 +9289,51 @@
       <c r="Q22" s="57">
         <v>2816</v>
       </c>
-      <c r="R22" s="319">
+      <c r="R22" s="316">
         <v>2529</v>
       </c>
-      <c r="S22" s="319">
+      <c r="S22" s="316">
         <v>1415</v>
       </c>
-      <c r="T22" s="319">
+      <c r="T22" s="316">
         <v>2038</v>
       </c>
-      <c r="U22" s="319">
+      <c r="U22" s="316">
         <v>1642</v>
       </c>
-      <c r="V22" s="320">
+      <c r="V22" s="317">
         <v>800</v>
       </c>
-      <c r="W22" s="327">
+      <c r="W22" s="324">
         <v>840</v>
       </c>
-      <c r="X22" s="328">
+      <c r="X22" s="325">
         <v>823</v>
       </c>
-      <c r="Y22" s="328">
+      <c r="Y22" s="325">
         <v>1638</v>
       </c>
-      <c r="Z22" s="328">
+      <c r="Z22" s="325">
         <v>1364</v>
       </c>
-      <c r="AA22" s="329">
+      <c r="AA22" s="326">
         <v>1442</v>
       </c>
-      <c r="AB22" s="297">
+      <c r="AB22" s="294">
         <v>700</v>
       </c>
       <c r="AC22" s="84"/>
       <c r="AD22" s="37"/>
       <c r="AE22" s="37"/>
       <c r="AF22" s="37"/>
-      <c r="AG22" s="311"/>
-      <c r="AH22" s="313">
+      <c r="AG22" s="308"/>
+      <c r="AH22" s="310">
         <f>SUM(AH7:AH19)</f>
         <v>0</v>
       </c>
-      <c r="AI22" s="311"/>
+      <c r="AI22" s="308"/>
       <c r="AJ22" s="90"/>
-      <c r="AK22" s="304"/>
+      <c r="AK22" s="301"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AQ22" s="33"/>
@@ -9230,7 +9357,7 @@
       <c r="BI22" s="33"/>
       <c r="BJ22" s="33"/>
     </row>
-    <row r="23" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="41" t="s">
         <v>23</v>
       </c>
@@ -9307,27 +9434,27 @@
         <f t="shared" si="2"/>
         <v>59208</v>
       </c>
-      <c r="W23" s="289">
+      <c r="W23" s="286">
         <f t="shared" si="2"/>
         <v>60530</v>
       </c>
-      <c r="X23" s="289">
+      <c r="X23" s="286">
         <f t="shared" si="2"/>
         <v>57195</v>
       </c>
-      <c r="Y23" s="289">
+      <c r="Y23" s="286">
         <f t="shared" si="2"/>
         <v>72279</v>
       </c>
-      <c r="Z23" s="290">
+      <c r="Z23" s="287">
         <f t="shared" si="2"/>
         <v>63029</v>
       </c>
-      <c r="AA23" s="291">
+      <c r="AA23" s="288">
         <f>SUM(AA6:AA22)</f>
         <v>65983</v>
       </c>
-      <c r="AB23" s="291">
+      <c r="AB23" s="288">
         <f>SUM(AB6:AB22)</f>
         <v>57004</v>
       </c>
@@ -9335,11 +9462,11 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
-      <c r="AG23" s="312"/>
-      <c r="AH23" s="312"/>
-      <c r="AI23" s="312"/>
+      <c r="AG23" s="309"/>
+      <c r="AH23" s="309"/>
+      <c r="AI23" s="309"/>
       <c r="AJ23" s="90"/>
-      <c r="AK23" s="277"/>
+      <c r="AK23" s="274"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AQ23" s="33"/>
@@ -9363,7 +9490,7 @@
       <c r="BI23" s="33"/>
       <c r="BJ23" s="33"/>
     </row>
-    <row r="24" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
         <v>59</v>
       </c>
@@ -9419,34 +9546,34 @@
       <c r="BI24" s="33"/>
       <c r="BJ24" s="33"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.35">
-      <c r="F25" s="350" t="s">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="F25" s="333" t="s">
         <v>39</v>
       </c>
       <c r="G25" s="29"/>
-      <c r="H25" s="357" t="s">
+      <c r="H25" s="340" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="358"/>
-      <c r="J25" s="358"/>
-      <c r="K25" s="358"/>
-      <c r="L25" s="358"/>
-      <c r="M25" s="358"/>
-      <c r="N25" s="358"/>
-      <c r="O25" s="358"/>
-      <c r="P25" s="358"/>
-      <c r="Q25" s="358"/>
-      <c r="R25" s="358"/>
-      <c r="S25" s="358"/>
-      <c r="T25" s="358"/>
-      <c r="U25" s="358"/>
-      <c r="V25" s="358"/>
-      <c r="W25" s="358"/>
-      <c r="X25" s="358"/>
-      <c r="Y25" s="358"/>
-      <c r="Z25" s="358"/>
-      <c r="AA25" s="358"/>
-      <c r="AB25" s="358"/>
+      <c r="I25" s="341"/>
+      <c r="J25" s="341"/>
+      <c r="K25" s="341"/>
+      <c r="L25" s="341"/>
+      <c r="M25" s="341"/>
+      <c r="N25" s="341"/>
+      <c r="O25" s="341"/>
+      <c r="P25" s="341"/>
+      <c r="Q25" s="341"/>
+      <c r="R25" s="341"/>
+      <c r="S25" s="341"/>
+      <c r="T25" s="341"/>
+      <c r="U25" s="341"/>
+      <c r="V25" s="341"/>
+      <c r="W25" s="341"/>
+      <c r="X25" s="341"/>
+      <c r="Y25" s="341"/>
+      <c r="Z25" s="341"/>
+      <c r="AA25" s="341"/>
+      <c r="AB25" s="341"/>
       <c r="AC25" s="80"/>
       <c r="AD25" s="37"/>
       <c r="AE25" s="37"/>
@@ -9476,8 +9603,8 @@
       <c r="BI25" s="33"/>
       <c r="BJ25" s="33"/>
     </row>
-    <row r="26" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F26" s="351"/>
+    <row r="26" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="334"/>
       <c r="G26" s="75"/>
       <c r="H26" s="91">
         <v>2000</v>
@@ -9571,7 +9698,7 @@
       <c r="BI26" s="33"/>
       <c r="BJ26" s="33"/>
     </row>
-    <row r="27" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="15" t="s">
         <v>40</v>
       </c>
@@ -9676,7 +9803,7 @@
       <c r="BI27" s="33"/>
       <c r="BJ27" s="33"/>
     </row>
-    <row r="28" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F28" s="15" t="s">
         <v>31</v>
       </c>
@@ -9781,7 +9908,7 @@
       <c r="BI28" s="33"/>
       <c r="BJ28" s="33"/>
     </row>
-    <row r="29" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" s="77" t="s">
         <v>45</v>
       </c>
@@ -9816,7 +9943,7 @@
       <c r="Q29" s="79">
         <v>2031</v>
       </c>
-      <c r="R29" s="282">
+      <c r="R29" s="279">
         <v>2139</v>
       </c>
       <c r="S29" s="79">
@@ -9880,7 +10007,7 @@
       <c r="BI29" s="33"/>
       <c r="BJ29" s="33"/>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="AD30" s="31" t="s">
         <v>60</v>
       </c>
@@ -9911,7 +10038,7 @@
       <c r="BI30" s="33"/>
       <c r="BJ30" s="33"/>
     </row>
-    <row r="31" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AC31" s="12"/>
       <c r="AK31" s="33"/>
       <c r="AL31" s="33"/>
@@ -9940,22 +10067,22 @@
       <c r="BI31" s="33"/>
       <c r="BJ31" s="33"/>
     </row>
-    <row r="32" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AC32" s="12"/>
       <c r="AD32" s="98"/>
-      <c r="AE32" s="334" t="s">
+      <c r="AE32" s="352" t="s">
         <v>130</v>
       </c>
-      <c r="AF32" s="336" t="s">
+      <c r="AF32" s="354" t="s">
         <v>131</v>
       </c>
-      <c r="AG32" s="338" t="s">
+      <c r="AG32" s="356" t="s">
         <v>64</v>
       </c>
-      <c r="AH32" s="342" t="s">
+      <c r="AH32" s="346" t="s">
         <v>65</v>
       </c>
-      <c r="AI32" s="344" t="s">
+      <c r="AI32" s="348" t="s">
         <v>66</v>
       </c>
       <c r="AK32" s="33"/>
@@ -9985,42 +10112,42 @@
       <c r="BI32" s="33"/>
       <c r="BJ32" s="33"/>
     </row>
-    <row r="33" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F33" s="352" t="s">
+    <row r="33" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="335" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="26"/>
-      <c r="H33" s="359" t="s">
+      <c r="H33" s="342" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="360"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="360"/>
-      <c r="L33" s="360"/>
-      <c r="M33" s="360"/>
-      <c r="N33" s="360"/>
-      <c r="O33" s="360"/>
-      <c r="P33" s="360"/>
-      <c r="Q33" s="360"/>
-      <c r="R33" s="360"/>
-      <c r="S33" s="360"/>
-      <c r="T33" s="360"/>
-      <c r="U33" s="360"/>
-      <c r="V33" s="360"/>
-      <c r="W33" s="360"/>
-      <c r="X33" s="360"/>
-      <c r="Y33" s="360"/>
-      <c r="Z33" s="360"/>
-      <c r="AA33" s="360"/>
-      <c r="AB33" s="360"/>
+      <c r="I33" s="343"/>
+      <c r="J33" s="343"/>
+      <c r="K33" s="343"/>
+      <c r="L33" s="343"/>
+      <c r="M33" s="343"/>
+      <c r="N33" s="343"/>
+      <c r="O33" s="343"/>
+      <c r="P33" s="343"/>
+      <c r="Q33" s="343"/>
+      <c r="R33" s="343"/>
+      <c r="S33" s="343"/>
+      <c r="T33" s="343"/>
+      <c r="U33" s="343"/>
+      <c r="V33" s="343"/>
+      <c r="W33" s="343"/>
+      <c r="X33" s="343"/>
+      <c r="Y33" s="343"/>
+      <c r="Z33" s="343"/>
+      <c r="AA33" s="343"/>
+      <c r="AB33" s="343"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="70"/>
-      <c r="AE33" s="335"/>
-      <c r="AF33" s="337"/>
-      <c r="AG33" s="339"/>
-      <c r="AH33" s="343"/>
-      <c r="AI33" s="345"/>
-      <c r="AJ33" s="346" t="s">
+      <c r="AE33" s="353"/>
+      <c r="AF33" s="355"/>
+      <c r="AG33" s="357"/>
+      <c r="AH33" s="347"/>
+      <c r="AI33" s="349"/>
+      <c r="AJ33" s="350" t="s">
         <v>61</v>
       </c>
       <c r="AK33" s="100"/>
@@ -10037,11 +10164,11 @@
       <c r="AV33" s="100"/>
       <c r="AW33" s="100"/>
       <c r="AX33" s="71"/>
-      <c r="AY33" s="340"/>
-      <c r="AZ33" s="340"/>
-      <c r="BA33" s="340"/>
-      <c r="BB33" s="341"/>
-      <c r="BC33" s="340"/>
+      <c r="AY33" s="344"/>
+      <c r="AZ33" s="344"/>
+      <c r="BA33" s="344"/>
+      <c r="BB33" s="345"/>
+      <c r="BC33" s="344"/>
       <c r="BD33" s="33"/>
       <c r="BE33" s="71"/>
       <c r="BF33" s="71"/>
@@ -10050,8 +10177,8 @@
       <c r="BI33" s="71"/>
       <c r="BJ33" s="71"/>
     </row>
-    <row r="34" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F34" s="353"/>
+    <row r="34" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="336"/>
       <c r="G34" s="27" t="s">
         <v>53</v>
       </c>
@@ -10127,7 +10254,7 @@
       <c r="AG34" s="66"/>
       <c r="AH34" s="66"/>
       <c r="AI34" s="110"/>
-      <c r="AJ34" s="347"/>
+      <c r="AJ34" s="351"/>
       <c r="AK34" s="100"/>
       <c r="AL34" s="24"/>
       <c r="AM34" s="24"/>
@@ -10142,11 +10269,11 @@
       <c r="AV34" s="100"/>
       <c r="AW34" s="100"/>
       <c r="AX34" s="128"/>
-      <c r="AY34" s="340"/>
-      <c r="AZ34" s="340"/>
-      <c r="BA34" s="340"/>
-      <c r="BB34" s="341"/>
-      <c r="BC34" s="340"/>
+      <c r="AY34" s="344"/>
+      <c r="AZ34" s="344"/>
+      <c r="BA34" s="344"/>
+      <c r="BB34" s="345"/>
+      <c r="BC34" s="344"/>
       <c r="BD34" s="33"/>
       <c r="BE34" s="129"/>
       <c r="BF34" s="33"/>
@@ -10155,7 +10282,7 @@
       <c r="BI34" s="33"/>
       <c r="BJ34" s="33"/>
     </row>
-    <row r="35" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F35" s="13" t="s">
         <v>25</v>
       </c>
@@ -10279,7 +10406,7 @@
       <c r="BI35" s="129"/>
       <c r="BJ35" s="33"/>
     </row>
-    <row r="36" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F36" s="13" t="s">
         <v>26</v>
       </c>
@@ -10406,7 +10533,7 @@
       <c r="BI36" s="129"/>
       <c r="BJ36" s="33"/>
     </row>
-    <row r="37" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F37" s="13" t="s">
         <v>27</v>
       </c>
@@ -10533,7 +10660,7 @@
       <c r="BI37" s="129"/>
       <c r="BJ37" s="33"/>
     </row>
-    <row r="38" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F38" s="13" t="s">
         <v>28</v>
       </c>
@@ -10648,7 +10775,7 @@
       <c r="BI38" s="129"/>
       <c r="BJ38" s="33"/>
     </row>
-    <row r="39" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F39" s="205" t="s">
         <v>40</v>
       </c>
@@ -10709,13 +10836,13 @@
       <c r="Y39" s="208">
         <v>35799</v>
       </c>
-      <c r="Z39" s="283">
+      <c r="Z39" s="280">
         <v>27400</v>
       </c>
-      <c r="AA39" s="284">
+      <c r="AA39" s="281">
         <v>31355</v>
       </c>
-      <c r="AB39" s="284">
+      <c r="AB39" s="281">
         <v>28199</v>
       </c>
       <c r="AC39" s="95">
@@ -10773,7 +10900,7 @@
       <c r="BI39" s="129"/>
       <c r="BJ39" s="33"/>
     </row>
-    <row r="40" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F40" s="13" t="s">
         <v>41</v>
       </c>
@@ -10888,7 +11015,7 @@
       <c r="BI40" s="129"/>
       <c r="BJ40" s="33"/>
     </row>
-    <row r="41" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F41" s="13" t="s">
         <v>29</v>
       </c>
@@ -11012,7 +11139,7 @@
       <c r="BI41" s="129"/>
       <c r="BJ41" s="33"/>
     </row>
-    <row r="42" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F42" s="13" t="s">
         <v>30</v>
       </c>
@@ -11139,7 +11266,7 @@
       <c r="BI42" s="129"/>
       <c r="BJ42" s="33"/>
     </row>
-    <row r="43" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="13" t="s">
         <v>31</v>
       </c>
@@ -11266,7 +11393,7 @@
       <c r="BI43" s="129"/>
       <c r="BJ43" s="33"/>
     </row>
-    <row r="44" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F44" s="13" t="s">
         <v>32</v>
       </c>
@@ -11393,7 +11520,7 @@
       <c r="BI44" s="129"/>
       <c r="BJ44" s="33"/>
     </row>
-    <row r="45" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F45" s="13" t="s">
         <v>43</v>
       </c>
@@ -11520,7 +11647,7 @@
       <c r="BI45" s="129"/>
       <c r="BJ45" s="33"/>
     </row>
-    <row r="46" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F46" s="13" t="s">
         <v>33</v>
       </c>
@@ -11647,7 +11774,7 @@
       <c r="BI46" s="129"/>
       <c r="BJ46" s="33"/>
     </row>
-    <row r="47" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F47" s="13" t="s">
         <v>34</v>
       </c>
@@ -11774,7 +11901,7 @@
       <c r="BI47" s="129"/>
       <c r="BJ47" s="33"/>
     </row>
-    <row r="48" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F48" s="13" t="s">
         <v>35</v>
       </c>
@@ -11901,7 +12028,7 @@
       <c r="BI48" s="129"/>
       <c r="BJ48" s="33"/>
     </row>
-    <row r="49" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F49" s="13" t="s">
         <v>36</v>
       </c>
@@ -12028,7 +12155,7 @@
       <c r="BI49" s="129"/>
       <c r="BJ49" s="33"/>
     </row>
-    <row r="50" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F50" s="13" t="s">
         <v>37</v>
       </c>
@@ -12152,7 +12279,7 @@
       <c r="BI50" s="129"/>
       <c r="BJ50" s="33"/>
     </row>
-    <row r="51" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F51" s="13" t="s">
         <v>38</v>
       </c>
@@ -12265,7 +12392,7 @@
       <c r="BI51" s="129"/>
       <c r="BJ51" s="33"/>
     </row>
-    <row r="52" spans="6:62" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="6:62" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F52" s="198" t="s">
         <v>45</v>
       </c>
@@ -12392,7 +12519,7 @@
       <c r="BI52" s="33"/>
       <c r="BJ52" s="33"/>
     </row>
-    <row r="53" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F53" s="202" t="s">
         <v>106</v>
       </c>
@@ -12519,7 +12646,7 @@
       <c r="BI53" s="33"/>
       <c r="BJ53" s="33"/>
     </row>
-    <row r="54" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="6:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F54" s="203" t="s">
         <v>107</v>
       </c>
@@ -12610,9 +12737,9 @@
       </c>
       <c r="AC54" s="83"/>
       <c r="AD54" s="3"/>
-      <c r="AE54" s="256"/>
-      <c r="AF54" s="256"/>
-      <c r="AG54" s="256">
+      <c r="AE54" s="253"/>
+      <c r="AF54" s="253"/>
+      <c r="AG54" s="253">
         <f t="shared" ref="AG54" si="11">SUM(AC36:AC38,AC40,AC42,AC46:AC51,AC45,AC56)</f>
         <v>112914.59999999999</v>
       </c>
@@ -12649,7 +12776,7 @@
       <c r="BI54" s="33"/>
       <c r="BJ54" s="33"/>
     </row>
-    <row r="55" spans="6:62" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:62" x14ac:dyDescent="0.3">
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
@@ -12680,92 +12807,92 @@
       <c r="BI55" s="33"/>
       <c r="BJ55" s="33"/>
     </row>
-    <row r="56" spans="6:62" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:62" x14ac:dyDescent="0.3">
       <c r="F56" s="195" t="s">
         <v>108</v>
       </c>
       <c r="G56" s="195"/>
-      <c r="H56" s="255">
+      <c r="H56" s="252">
         <f>SUM(H43,H28)</f>
         <v>4670</v>
       </c>
-      <c r="I56" s="255">
+      <c r="I56" s="252">
         <f t="shared" ref="I56:AB56" si="13">SUM(I43,I28)</f>
         <v>5329</v>
       </c>
-      <c r="J56" s="255">
+      <c r="J56" s="252">
         <f t="shared" si="13"/>
         <v>5534</v>
       </c>
-      <c r="K56" s="255">
+      <c r="K56" s="252">
         <f t="shared" si="13"/>
         <v>6657</v>
       </c>
-      <c r="L56" s="255">
+      <c r="L56" s="252">
         <f t="shared" si="13"/>
         <v>4458</v>
       </c>
-      <c r="M56" s="255">
+      <c r="M56" s="252">
         <f t="shared" si="13"/>
         <v>3457</v>
       </c>
-      <c r="N56" s="255">
+      <c r="N56" s="252">
         <f t="shared" si="13"/>
         <v>2539</v>
       </c>
-      <c r="O56" s="255">
+      <c r="O56" s="252">
         <f t="shared" si="13"/>
         <v>2013</v>
       </c>
-      <c r="P56" s="255">
+      <c r="P56" s="252">
         <f t="shared" si="13"/>
         <v>3734</v>
       </c>
-      <c r="Q56" s="255">
+      <c r="Q56" s="252">
         <f t="shared" si="13"/>
         <v>2216</v>
       </c>
-      <c r="R56" s="255">
+      <c r="R56" s="252">
         <f t="shared" si="13"/>
         <v>2292</v>
       </c>
-      <c r="S56" s="255">
+      <c r="S56" s="252">
         <f t="shared" si="13"/>
         <v>3205</v>
       </c>
-      <c r="T56" s="255">
+      <c r="T56" s="252">
         <f t="shared" si="13"/>
         <v>2993</v>
       </c>
-      <c r="U56" s="255">
+      <c r="U56" s="252">
         <f t="shared" si="13"/>
         <v>3138</v>
       </c>
-      <c r="V56" s="255">
+      <c r="V56" s="252">
         <f t="shared" si="13"/>
         <v>2248</v>
       </c>
-      <c r="W56" s="255">
+      <c r="W56" s="252">
         <f t="shared" si="13"/>
         <v>2648</v>
       </c>
-      <c r="X56" s="255">
+      <c r="X56" s="252">
         <f t="shared" si="13"/>
         <v>2368</v>
       </c>
-      <c r="Y56" s="255">
+      <c r="Y56" s="252">
         <f t="shared" si="13"/>
         <v>2140</v>
       </c>
-      <c r="Z56" s="255">
+      <c r="Z56" s="252">
         <f t="shared" si="13"/>
         <v>2511</v>
       </c>
-      <c r="AA56" s="255">
+      <c r="AA56" s="252">
         <f t="shared" si="13"/>
         <v>2752</v>
       </c>
-      <c r="AB56" s="255">
+      <c r="AB56" s="252">
         <f t="shared" si="13"/>
         <v>3030</v>
       </c>
@@ -12796,7 +12923,7 @@
       <c r="BI56" s="33"/>
       <c r="BJ56" s="33"/>
     </row>
-    <row r="57" spans="6:62" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:62" x14ac:dyDescent="0.3">
       <c r="AK57" s="33"/>
       <c r="AL57" s="33"/>
       <c r="AM57" s="33"/>
@@ -12824,7 +12951,7 @@
       <c r="BI57" s="33"/>
       <c r="BJ57" s="33"/>
     </row>
-    <row r="58" spans="6:62" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:62" x14ac:dyDescent="0.3">
       <c r="AK58" s="33"/>
       <c r="AL58" s="33"/>
       <c r="AM58" s="33"/>
@@ -12854,23 +12981,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AZ33:AZ34"/>
+    <mergeCell ref="BA33:BA34"/>
+    <mergeCell ref="BC33:BC34"/>
+    <mergeCell ref="BB33:BB34"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="AJ33:AJ34"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H25:AB25"/>
     <mergeCell ref="H33:AB33"/>
-    <mergeCell ref="BA33:BA34"/>
-    <mergeCell ref="BC33:BC34"/>
-    <mergeCell ref="BB33:BB34"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AI32:AI33"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AZ33:AZ34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
@@ -12887,19 +13014,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="4.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>46</v>
       </c>
@@ -12914,7 +13041,7 @@
       </c>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>25</v>
       </c>
@@ -12924,7 +13051,7 @@
       <c r="C3" s="20"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
@@ -12939,7 +13066,7 @@
         <v>3.9519384211020372E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>27</v>
       </c>
@@ -12954,7 +13081,7 @@
         <v>0.15172564848712414</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>28</v>
       </c>
@@ -12969,7 +13096,7 @@
         <v>0.11411495979223379</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>50</v>
       </c>
@@ -12979,7 +13106,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>41</v>
       </c>
@@ -12989,7 +13116,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="36"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
@@ -12999,7 +13126,7 @@
       <c r="C9" s="20"/>
       <c r="D9" s="36"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -13014,7 +13141,7 @@
         <v>3.9112613035451674E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>31</v>
       </c>
@@ -13029,7 +13156,7 @@
         <v>0.10482180293501048</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>32</v>
       </c>
@@ -13039,7 +13166,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="36"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>43</v>
       </c>
@@ -13049,7 +13176,7 @@
       <c r="C13" s="20"/>
       <c r="D13" s="36"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
@@ -13064,7 +13191,7 @@
         <v>0.22685315560561969</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>34</v>
       </c>
@@ -13079,7 +13206,7 @@
         <v>3.9112613035451674E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>35</v>
       </c>
@@ -13094,7 +13221,7 @@
         <v>3.9112613035451674E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>36</v>
       </c>
@@ -13109,7 +13236,7 @@
         <v>3.9112613035451674E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>37</v>
       </c>
@@ -13124,7 +13251,7 @@
         <v>0.13104289871397728</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>38</v>
       </c>
@@ -13139,7 +13266,7 @@
         <v>7.5471698113207544E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>48</v>
       </c>
@@ -13149,12 +13276,12 @@
       </c>
       <c r="D20" s="23"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>52</v>
       </c>
@@ -13168,29 +13295,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:AG20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="8.90625" style="31"/>
-    <col min="13" max="13" width="15.453125" style="31" customWidth="1"/>
-    <col min="14" max="16" width="8.90625" style="31"/>
-    <col min="17" max="27" width="11.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.54296875" style="31" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="9.54296875" style="31" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.90625" style="31"/>
+    <col min="1" max="12" width="8.88671875" style="31"/>
+    <col min="13" max="13" width="15.44140625" style="31" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="31"/>
+    <col min="17" max="27" width="11.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="9.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="I2" s="361" t="s">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="I2" s="358" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="361"/>
-      <c r="M2" s="277"/>
-    </row>
-    <row r="3" spans="2:33" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="358"/>
+      <c r="M2" s="274"/>
+    </row>
+    <row r="3" spans="2:33" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="49" t="s">
         <v>118</v>
       </c>
@@ -13209,7 +13336,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C4" s="52" t="s">
         <v>116</v>
       </c>
@@ -13222,21 +13349,24 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="281"/>
-      <c r="V4" s="281"/>
-      <c r="W4" s="281"/>
-      <c r="X4" s="281"/>
-      <c r="Y4" s="281"/>
+      <c r="U4" s="278"/>
+      <c r="V4" s="278"/>
+      <c r="W4" s="278"/>
+      <c r="X4" s="278"/>
+      <c r="Y4" s="278"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="251">
+      <c r="C5" s="369">
         <f>I5+J5</f>
         <v>1E-3</v>
       </c>
+      <c r="D5" s="31" t="s">
+        <v>143</v>
+      </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
@@ -13244,31 +13374,31 @@
         <v>1E-3</v>
       </c>
       <c r="L5" s="232"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="278"/>
-      <c r="O5" s="278"/>
-      <c r="P5" s="278"/>
-      <c r="Q5" s="278"/>
-      <c r="R5" s="278"/>
+      <c r="M5" s="270"/>
+      <c r="N5" s="275"/>
+      <c r="O5" s="275"/>
+      <c r="P5" s="275"/>
+      <c r="Q5" s="275"/>
+      <c r="R5" s="275"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="280"/>
-      <c r="V5" s="280"/>
-      <c r="W5" s="280"/>
-      <c r="X5" s="280"/>
-      <c r="Y5" s="280"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
       <c r="Z5" s="3"/>
-      <c r="AB5" s="279"/>
-      <c r="AC5" s="272"/>
-      <c r="AD5" s="272"/>
-      <c r="AE5" s="272"/>
-      <c r="AF5" s="272"/>
-      <c r="AG5" s="272"/>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB5" s="276"/>
+      <c r="AC5" s="269"/>
+      <c r="AD5" s="269"/>
+      <c r="AE5" s="269"/>
+      <c r="AF5" s="269"/>
+      <c r="AG5" s="269"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="251">
+      <c r="C6" s="369">
         <f t="shared" ref="C6:C17" si="0">I6+J6</f>
         <v>0.02</v>
       </c>
@@ -13280,31 +13410,31 @@
       </c>
       <c r="K6" s="248"/>
       <c r="L6" s="232"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="278"/>
-      <c r="O6" s="278"/>
-      <c r="P6" s="278"/>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
+      <c r="M6" s="270"/>
+      <c r="N6" s="275"/>
+      <c r="O6" s="275"/>
+      <c r="P6" s="275"/>
+      <c r="Q6" s="275"/>
+      <c r="R6" s="275"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="280"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
+      <c r="U6" s="277"/>
+      <c r="V6" s="277"/>
+      <c r="W6" s="277"/>
+      <c r="X6" s="277"/>
+      <c r="Y6" s="277"/>
       <c r="Z6" s="3"/>
-      <c r="AB6" s="279"/>
-      <c r="AC6" s="272"/>
-      <c r="AD6" s="272"/>
-      <c r="AE6" s="272"/>
-      <c r="AF6" s="272"/>
-      <c r="AG6" s="272"/>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB6" s="276"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="269"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="251">
+      <c r="C7" s="369">
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
@@ -13316,31 +13446,31 @@
       </c>
       <c r="K7" s="248"/>
       <c r="L7" s="232"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="278"/>
-      <c r="O7" s="278"/>
-      <c r="P7" s="278"/>
-      <c r="Q7" s="278"/>
-      <c r="R7" s="278"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="275"/>
+      <c r="O7" s="275"/>
+      <c r="P7" s="275"/>
+      <c r="Q7" s="275"/>
+      <c r="R7" s="275"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="280"/>
-      <c r="V7" s="280"/>
-      <c r="W7" s="280"/>
-      <c r="X7" s="280"/>
-      <c r="Y7" s="280"/>
+      <c r="U7" s="277"/>
+      <c r="V7" s="277"/>
+      <c r="W7" s="277"/>
+      <c r="X7" s="277"/>
+      <c r="Y7" s="277"/>
       <c r="Z7" s="3"/>
-      <c r="AB7" s="279"/>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="272"/>
-      <c r="AE7" s="272"/>
-      <c r="AF7" s="272"/>
-      <c r="AG7" s="272"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB7" s="276"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="269"/>
+      <c r="AF7" s="269"/>
+      <c r="AG7" s="269"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="251">
+      <c r="C8" s="369">
         <f t="shared" si="0"/>
         <v>0.17799999999999999</v>
       </c>
@@ -13352,31 +13482,31 @@
       </c>
       <c r="K8" s="248"/>
       <c r="L8" s="232"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="278"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="278"/>
-      <c r="Q8" s="278"/>
-      <c r="R8" s="278"/>
+      <c r="M8" s="270"/>
+      <c r="N8" s="275"/>
+      <c r="O8" s="275"/>
+      <c r="P8" s="275"/>
+      <c r="Q8" s="275"/>
+      <c r="R8" s="275"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="280"/>
-      <c r="V8" s="280"/>
-      <c r="W8" s="280"/>
-      <c r="X8" s="280"/>
-      <c r="Y8" s="280"/>
+      <c r="U8" s="277"/>
+      <c r="V8" s="277"/>
+      <c r="W8" s="277"/>
+      <c r="X8" s="277"/>
+      <c r="Y8" s="277"/>
       <c r="Z8" s="3"/>
-      <c r="AB8" s="279"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="272"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="272"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB8" s="276"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="269"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="251">
+      <c r="C9" s="369">
         <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
@@ -13387,31 +13517,31 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="L9" s="232"/>
-      <c r="M9" s="273"/>
-      <c r="N9" s="278"/>
-      <c r="O9" s="278"/>
-      <c r="P9" s="278"/>
-      <c r="Q9" s="278"/>
-      <c r="R9" s="278"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="275"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="275"/>
+      <c r="R9" s="275"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="280"/>
-      <c r="V9" s="280"/>
-      <c r="W9" s="280"/>
-      <c r="X9" s="280"/>
-      <c r="Y9" s="280"/>
+      <c r="U9" s="277"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="277"/>
+      <c r="X9" s="277"/>
+      <c r="Y9" s="277"/>
       <c r="Z9" s="3"/>
-      <c r="AB9" s="279"/>
-      <c r="AC9" s="272"/>
-      <c r="AD9" s="272"/>
-      <c r="AE9" s="272"/>
-      <c r="AF9" s="272"/>
-      <c r="AG9" s="272"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB9" s="276"/>
+      <c r="AC9" s="269"/>
+      <c r="AD9" s="269"/>
+      <c r="AE9" s="269"/>
+      <c r="AF9" s="269"/>
+      <c r="AG9" s="269"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="251">
+      <c r="C10" s="369">
         <f t="shared" si="0"/>
         <v>1.1666666666666668E-3</v>
       </c>
@@ -13422,31 +13552,31 @@
         <v>1.1666666666666668E-3</v>
       </c>
       <c r="L10" s="232"/>
-      <c r="M10" s="273"/>
-      <c r="N10" s="278"/>
-      <c r="O10" s="278"/>
-      <c r="P10" s="278"/>
-      <c r="Q10" s="278"/>
-      <c r="R10" s="278"/>
+      <c r="M10" s="270"/>
+      <c r="N10" s="275"/>
+      <c r="O10" s="275"/>
+      <c r="P10" s="275"/>
+      <c r="Q10" s="275"/>
+      <c r="R10" s="275"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="280"/>
-      <c r="V10" s="280"/>
-      <c r="W10" s="280"/>
-      <c r="X10" s="280"/>
-      <c r="Y10" s="280"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="277"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="277"/>
       <c r="Z10" s="3"/>
-      <c r="AB10" s="279"/>
-      <c r="AC10" s="272"/>
-      <c r="AD10" s="272"/>
-      <c r="AE10" s="272"/>
-      <c r="AF10" s="272"/>
-      <c r="AG10" s="272"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB10" s="276"/>
+      <c r="AC10" s="269"/>
+      <c r="AD10" s="269"/>
+      <c r="AE10" s="269"/>
+      <c r="AF10" s="269"/>
+      <c r="AG10" s="269"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="251">
+      <c r="C11" s="369">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
@@ -13457,31 +13587,31 @@
         <v>0.02</v>
       </c>
       <c r="L11" s="232"/>
-      <c r="M11" s="273"/>
-      <c r="N11" s="278"/>
-      <c r="O11" s="278"/>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="278"/>
-      <c r="R11" s="278"/>
+      <c r="M11" s="270"/>
+      <c r="N11" s="275"/>
+      <c r="O11" s="275"/>
+      <c r="P11" s="275"/>
+      <c r="Q11" s="275"/>
+      <c r="R11" s="275"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="280"/>
-      <c r="V11" s="280"/>
-      <c r="W11" s="280"/>
-      <c r="X11" s="280"/>
-      <c r="Y11" s="280"/>
+      <c r="U11" s="277"/>
+      <c r="V11" s="277"/>
+      <c r="W11" s="277"/>
+      <c r="X11" s="277"/>
+      <c r="Y11" s="277"/>
       <c r="Z11" s="3"/>
-      <c r="AB11" s="279"/>
-      <c r="AC11" s="272"/>
-      <c r="AD11" s="272"/>
-      <c r="AE11" s="272"/>
-      <c r="AF11" s="272"/>
-      <c r="AG11" s="272"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB11" s="276"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="269"/>
+      <c r="AE11" s="269"/>
+      <c r="AF11" s="269"/>
+      <c r="AG11" s="269"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="251">
+      <c r="C12" s="369">
         <f t="shared" si="0"/>
         <v>8.0000000000000016E-2</v>
       </c>
@@ -13492,31 +13622,31 @@
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="L12" s="232"/>
-      <c r="M12" s="274"/>
-      <c r="N12" s="278"/>
-      <c r="O12" s="278"/>
-      <c r="P12" s="278"/>
-      <c r="Q12" s="278"/>
-      <c r="R12" s="278"/>
+      <c r="M12" s="271"/>
+      <c r="N12" s="275"/>
+      <c r="O12" s="275"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="275"/>
+      <c r="R12" s="275"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="280"/>
-      <c r="V12" s="280"/>
-      <c r="W12" s="280"/>
-      <c r="X12" s="280"/>
-      <c r="Y12" s="280"/>
+      <c r="U12" s="277"/>
+      <c r="V12" s="277"/>
+      <c r="W12" s="277"/>
+      <c r="X12" s="277"/>
+      <c r="Y12" s="277"/>
       <c r="Z12" s="3"/>
-      <c r="AB12" s="279"/>
-      <c r="AC12" s="272"/>
-      <c r="AD12" s="272"/>
-      <c r="AE12" s="272"/>
-      <c r="AF12" s="272"/>
-      <c r="AG12" s="272"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB12" s="276"/>
+      <c r="AC12" s="269"/>
+      <c r="AD12" s="269"/>
+      <c r="AE12" s="269"/>
+      <c r="AF12" s="269"/>
+      <c r="AG12" s="269"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="251">
+      <c r="C13" s="369">
         <f t="shared" si="0"/>
         <v>0.11235445544554455</v>
       </c>
@@ -13527,31 +13657,31 @@
         <v>6.7354455445544553E-2</v>
       </c>
       <c r="L13" s="232"/>
-      <c r="M13" s="275"/>
-      <c r="N13" s="278"/>
-      <c r="O13" s="278"/>
-      <c r="P13" s="278"/>
-      <c r="Q13" s="278"/>
-      <c r="R13" s="278"/>
+      <c r="M13" s="272"/>
+      <c r="N13" s="275"/>
+      <c r="O13" s="275"/>
+      <c r="P13" s="275"/>
+      <c r="Q13" s="275"/>
+      <c r="R13" s="275"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="280"/>
-      <c r="V13" s="280"/>
-      <c r="W13" s="280"/>
-      <c r="X13" s="280"/>
-      <c r="Y13" s="280"/>
+      <c r="U13" s="277"/>
+      <c r="V13" s="277"/>
+      <c r="W13" s="277"/>
+      <c r="X13" s="277"/>
+      <c r="Y13" s="277"/>
       <c r="Z13" s="3"/>
-      <c r="AB13" s="279"/>
-      <c r="AC13" s="272"/>
-      <c r="AD13" s="272"/>
-      <c r="AE13" s="272"/>
-      <c r="AF13" s="272"/>
-      <c r="AG13" s="272"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB13" s="276"/>
+      <c r="AC13" s="269"/>
+      <c r="AD13" s="269"/>
+      <c r="AE13" s="269"/>
+      <c r="AF13" s="269"/>
+      <c r="AG13" s="269"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="251">
+      <c r="C14" s="369">
         <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
@@ -13562,29 +13692,29 @@
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="L14" s="232"/>
-      <c r="M14" s="275"/>
-      <c r="N14" s="278"/>
-      <c r="O14" s="278"/>
-      <c r="P14" s="278"/>
-      <c r="Q14" s="278"/>
-      <c r="R14" s="278"/>
+      <c r="M14" s="272"/>
+      <c r="N14" s="275"/>
+      <c r="O14" s="275"/>
+      <c r="P14" s="275"/>
+      <c r="Q14" s="275"/>
+      <c r="R14" s="275"/>
       <c r="U14" s="218"/>
       <c r="V14" s="218"/>
       <c r="W14" s="218"/>
       <c r="X14" s="218"/>
       <c r="Y14" s="218"/>
-      <c r="AB14" s="279"/>
-      <c r="AC14" s="272"/>
-      <c r="AD14" s="272"/>
-      <c r="AE14" s="272"/>
-      <c r="AF14" s="272"/>
-      <c r="AG14" s="272"/>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB14" s="276"/>
+      <c r="AC14" s="269"/>
+      <c r="AD14" s="269"/>
+      <c r="AE14" s="269"/>
+      <c r="AF14" s="269"/>
+      <c r="AG14" s="269"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="251">
+      <c r="C15" s="369">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -13595,29 +13725,29 @@
         <v>4.7E-2</v>
       </c>
       <c r="L15" s="232"/>
-      <c r="M15" s="275"/>
-      <c r="N15" s="278"/>
-      <c r="O15" s="278"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="278"/>
+      <c r="M15" s="272"/>
+      <c r="N15" s="275"/>
+      <c r="O15" s="275"/>
+      <c r="P15" s="275"/>
+      <c r="Q15" s="275"/>
+      <c r="R15" s="275"/>
       <c r="U15" s="218"/>
       <c r="V15" s="218"/>
       <c r="W15" s="218"/>
       <c r="X15" s="218"/>
       <c r="Y15" s="218"/>
-      <c r="AB15" s="279"/>
-      <c r="AC15" s="272"/>
-      <c r="AD15" s="272"/>
-      <c r="AE15" s="272"/>
-      <c r="AF15" s="272"/>
-      <c r="AG15" s="272"/>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB15" s="276"/>
+      <c r="AC15" s="269"/>
+      <c r="AD15" s="269"/>
+      <c r="AE15" s="269"/>
+      <c r="AF15" s="269"/>
+      <c r="AG15" s="269"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="251">
+      <c r="C16" s="369">
         <f t="shared" si="0"/>
         <v>2.3E-2</v>
       </c>
@@ -13628,29 +13758,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L16" s="232"/>
-      <c r="M16" s="275"/>
-      <c r="N16" s="278"/>
-      <c r="O16" s="278"/>
-      <c r="P16" s="278"/>
-      <c r="Q16" s="278"/>
-      <c r="R16" s="278"/>
+      <c r="M16" s="272"/>
+      <c r="N16" s="275"/>
+      <c r="O16" s="275"/>
+      <c r="P16" s="275"/>
+      <c r="Q16" s="275"/>
+      <c r="R16" s="275"/>
       <c r="U16" s="218"/>
       <c r="V16" s="218"/>
       <c r="W16" s="218"/>
       <c r="X16" s="218"/>
       <c r="Y16" s="218"/>
-      <c r="AB16" s="279"/>
-      <c r="AC16" s="272"/>
-      <c r="AD16" s="272"/>
-      <c r="AE16" s="272"/>
-      <c r="AF16" s="272"/>
-      <c r="AG16" s="272"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AB16" s="276"/>
+      <c r="AC16" s="269"/>
+      <c r="AD16" s="269"/>
+      <c r="AE16" s="269"/>
+      <c r="AF16" s="269"/>
+      <c r="AG16" s="269"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="251">
+      <c r="C17" s="369">
         <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -13661,26 +13791,26 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="L17" s="232"/>
-      <c r="M17" s="275"/>
-      <c r="N17" s="278"/>
-      <c r="O17" s="278"/>
-      <c r="P17" s="278"/>
-      <c r="Q17" s="278"/>
-      <c r="R17" s="278"/>
+      <c r="M17" s="272"/>
+      <c r="N17" s="275"/>
+      <c r="O17" s="275"/>
+      <c r="P17" s="275"/>
+      <c r="Q17" s="275"/>
+      <c r="R17" s="275"/>
       <c r="U17" s="218"/>
       <c r="V17" s="218"/>
       <c r="W17" s="218"/>
       <c r="X17" s="218"/>
       <c r="Y17" s="218"/>
-      <c r="AB17" s="279"/>
-      <c r="AC17" s="272"/>
-      <c r="AD17" s="272"/>
-      <c r="AE17" s="272"/>
-      <c r="AF17" s="272"/>
-      <c r="AG17" s="272"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="C18" s="252">
+      <c r="AB17" s="276"/>
+      <c r="AC17" s="269"/>
+      <c r="AD17" s="269"/>
+      <c r="AE17" s="269"/>
+      <c r="AF17" s="269"/>
+      <c r="AG17" s="269"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C18" s="251">
         <f>SUM(C5:C7,C8,C9:C10,C11:C17)</f>
         <v>0.65652112211221125</v>
       </c>
@@ -13689,61 +13819,61 @@
         <f>SUM(J5:J17)</f>
         <v>0.53052112211221125</v>
       </c>
-      <c r="M18" s="276"/>
-      <c r="N18" s="278"/>
-      <c r="O18" s="278"/>
-      <c r="P18" s="278"/>
-      <c r="Q18" s="278"/>
-      <c r="R18" s="278"/>
+      <c r="M18" s="273"/>
+      <c r="N18" s="275"/>
+      <c r="O18" s="275"/>
+      <c r="P18" s="275"/>
+      <c r="Q18" s="275"/>
+      <c r="R18" s="275"/>
       <c r="U18" s="218"/>
       <c r="V18" s="218"/>
       <c r="W18" s="218"/>
       <c r="X18" s="218"/>
       <c r="Y18" s="218"/>
-      <c r="AB18" s="279"/>
-      <c r="AC18" s="272"/>
-      <c r="AD18" s="272"/>
-      <c r="AE18" s="272"/>
-      <c r="AF18" s="272"/>
-      <c r="AG18" s="272"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="M19" s="276"/>
-      <c r="N19" s="278"/>
-      <c r="O19" s="278"/>
-      <c r="P19" s="278"/>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="278"/>
+      <c r="AB18" s="276"/>
+      <c r="AC18" s="269"/>
+      <c r="AD18" s="269"/>
+      <c r="AE18" s="269"/>
+      <c r="AF18" s="269"/>
+      <c r="AG18" s="269"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="M19" s="273"/>
+      <c r="N19" s="275"/>
+      <c r="O19" s="275"/>
+      <c r="P19" s="275"/>
+      <c r="Q19" s="275"/>
+      <c r="R19" s="275"/>
       <c r="U19" s="218"/>
       <c r="V19" s="218"/>
       <c r="W19" s="218"/>
       <c r="X19" s="218"/>
       <c r="Y19" s="218"/>
-      <c r="AB19" s="279"/>
-      <c r="AC19" s="272"/>
-      <c r="AD19" s="272"/>
-      <c r="AE19" s="272"/>
-      <c r="AF19" s="272"/>
-      <c r="AG19" s="272"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="M20" s="276"/>
-      <c r="N20" s="278"/>
-      <c r="O20" s="278"/>
-      <c r="P20" s="278"/>
-      <c r="Q20" s="278"/>
-      <c r="R20" s="278"/>
+      <c r="AB19" s="276"/>
+      <c r="AC19" s="269"/>
+      <c r="AD19" s="269"/>
+      <c r="AE19" s="269"/>
+      <c r="AF19" s="269"/>
+      <c r="AG19" s="269"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="M20" s="273"/>
+      <c r="N20" s="275"/>
+      <c r="O20" s="275"/>
+      <c r="P20" s="275"/>
+      <c r="Q20" s="275"/>
+      <c r="R20" s="275"/>
       <c r="U20" s="218"/>
       <c r="V20" s="218"/>
       <c r="W20" s="218"/>
       <c r="X20" s="218"/>
       <c r="Y20" s="218"/>
-      <c r="AB20" s="272"/>
-      <c r="AC20" s="272"/>
-      <c r="AD20" s="272"/>
-      <c r="AE20" s="272"/>
-      <c r="AF20" s="272"/>
-      <c r="AG20" s="272"/>
+      <c r="AB20" s="269"/>
+      <c r="AC20" s="269"/>
+      <c r="AD20" s="269"/>
+      <c r="AE20" s="269"/>
+      <c r="AF20" s="269"/>
+      <c r="AG20" s="269"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13762,37 +13892,37 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
     <col min="24" max="24" width="13" style="31" customWidth="1"/>
-    <col min="25" max="25" width="12.90625" style="31" customWidth="1"/>
-    <col min="26" max="26" width="11.36328125" customWidth="1"/>
-    <col min="27" max="27" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.453125" customWidth="1"/>
-    <col min="29" max="29" width="13.453125" style="31" customWidth="1"/>
-    <col min="30" max="30" width="4.1796875" style="31" customWidth="1"/>
+    <col min="25" max="25" width="12.88671875" style="31" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.44140625" customWidth="1"/>
+    <col min="29" max="29" width="13.44140625" style="31" customWidth="1"/>
+    <col min="30" max="30" width="4.21875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="172">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -13815,7 +13945,7 @@
       <c r="T3" s="51"/>
       <c r="U3" s="31"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="173"/>
       <c r="C4" s="174"/>
@@ -13844,7 +13974,7 @@
       <c r="T4" s="175"/>
       <c r="U4" s="31"/>
     </row>
-    <row r="5" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
       <c r="B5" s="177"/>
       <c r="C5" s="80" t="s">
@@ -13883,7 +14013,7 @@
       <c r="T5" s="178"/>
       <c r="U5" s="31"/>
     </row>
-    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31"/>
       <c r="B6" s="180" t="s">
         <v>82</v>
@@ -13953,7 +14083,7 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
@@ -14037,7 +14167,7 @@
       <c r="AG7" s="235"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="184" t="s">
         <v>26</v>
       </c>
@@ -14133,7 +14263,7 @@
       <c r="AG8" s="235"/>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>87</v>
       </c>
@@ -14223,7 +14353,7 @@
       <c r="AG9" s="235"/>
       <c r="AH9" s="3"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="184" t="s">
         <v>27</v>
       </c>
@@ -14319,7 +14449,7 @@
       <c r="AG10" s="235"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>88</v>
       </c>
@@ -14410,7 +14540,7 @@
       <c r="AG11" s="235"/>
       <c r="AH11" s="3"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>89</v>
       </c>
@@ -14500,7 +14630,7 @@
       <c r="AG12" s="235"/>
       <c r="AH12" s="3"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="184" t="s">
         <v>28</v>
       </c>
@@ -14596,7 +14726,7 @@
       <c r="AG13" s="235"/>
       <c r="AH13" s="3"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
@@ -14686,7 +14816,7 @@
       <c r="AG14" s="235"/>
       <c r="AH14" s="3"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>90</v>
       </c>
@@ -14776,7 +14906,7 @@
       <c r="AG15" s="235"/>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="184" t="s">
         <v>91</v>
       </c>
@@ -14872,7 +15002,7 @@
       <c r="AG16" s="235"/>
       <c r="AH16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>92</v>
       </c>
@@ -14962,7 +15092,7 @@
       <c r="AG17" s="235"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>93</v>
       </c>
@@ -15052,7 +15182,7 @@
       <c r="AG18" s="235"/>
       <c r="AH18" s="3"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>94</v>
       </c>
@@ -15142,7 +15272,7 @@
       <c r="AG19" s="235"/>
       <c r="AH19" s="3"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>95</v>
       </c>
@@ -15232,7 +15362,7 @@
       <c r="AG20" s="234"/>
       <c r="AH20" s="3"/>
     </row>
-    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>96</v>
       </c>
@@ -15324,7 +15454,7 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
     </row>
-    <row r="22" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="184" t="s">
         <v>97</v>
       </c>
@@ -15398,7 +15528,7 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="184" t="s">
         <v>98</v>
       </c>
@@ -15464,7 +15594,7 @@
         <v>386.15066947535701</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="184" t="s">
         <v>29</v>
       </c>
@@ -15530,7 +15660,7 @@
         <v>9103.5038593025656</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="184" t="s">
         <v>31</v>
       </c>
@@ -15596,7 +15726,7 @@
         <v>44291.246716497721</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="184" t="s">
         <v>30</v>
       </c>
@@ -15662,7 +15792,7 @@
         <v>1982.2529684680685</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>99</v>
       </c>
@@ -15722,7 +15852,7 @@
         <v>5524.5092716588033</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>43</v>
       </c>
@@ -15788,7 +15918,7 @@
         <v>6619.1045740626023</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>100</v>
       </c>
@@ -15848,7 +15978,7 @@
         <v>4076.0322938495224</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="184" t="s">
         <v>101</v>
       </c>
@@ -15914,7 +16044,7 @@
         <v>1509.0592364220051</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>102</v>
       </c>
@@ -15974,7 +16104,7 @@
         <v>4982.0319992774384</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -16040,7 +16170,7 @@
         <v>812.98950008518193</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="184" t="s">
         <v>33</v>
       </c>
@@ -16106,7 +16236,7 @@
         <v>6624.8902770806853</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="184" t="s">
         <v>34</v>
       </c>
@@ -16172,7 +16302,7 @@
         <v>807.25169487032372</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="184" t="s">
         <v>35</v>
       </c>
@@ -16238,7 +16368,7 @@
         <v>4301.691307031223</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="184" t="s">
         <v>36</v>
       </c>
@@ -16304,7 +16434,7 @@
         <v>2092.3240115750659</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="184" t="s">
         <v>37</v>
       </c>
@@ -16370,7 +16500,7 @@
         <v>3884.4008508635839</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>103</v>
       </c>
@@ -16430,7 +16560,7 @@
         <v>1627.2472468918472</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="177"/>
       <c r="C39" s="80"/>
@@ -16456,7 +16586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="190" t="s">
         <v>40</v>
       </c>
@@ -16536,181 +16666,181 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="362" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="359" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-    </row>
-    <row r="2" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="259" t="s">
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+    </row>
+    <row r="2" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="256" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="256" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="259" t="s">
+      <c r="D2" s="256" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="261">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="258">
         <v>5.7406069563893214E-2</v>
       </c>
-      <c r="C3" s="288">
+      <c r="C3" s="285">
         <v>6.3368107627706616E-2</v>
       </c>
-      <c r="D3" s="288">
+      <c r="D3" s="285">
         <v>5.8156134988612516E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="261">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="258">
         <v>0.11924467081991033</v>
       </c>
-      <c r="C4" s="288">
+      <c r="C4" s="285">
         <v>0.11716480207178011</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.1068580245277269</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="261">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="258">
         <v>9.4922519026857152E-2</v>
       </c>
-      <c r="C5" s="288">
+      <c r="C5" s="285">
         <v>9.6253155492038653E-2</v>
       </c>
-      <c r="D5" s="288">
+      <c r="D5" s="285">
         <v>9.3896233457052322E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="261">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="258">
         <v>0.1066702233510457</v>
       </c>
-      <c r="C6" s="288">
+      <c r="C6" s="285">
         <v>9.6655964239404146E-2</v>
       </c>
-      <c r="D6" s="288">
+      <c r="D6" s="285">
         <v>0.10332635969144478</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="261">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="258">
         <v>3.1474712443873544E-2</v>
       </c>
-      <c r="C7" s="288">
+      <c r="C7" s="285">
         <v>3.0634444687116128E-2</v>
       </c>
-      <c r="D7" s="288">
+      <c r="D7" s="285">
         <v>3.0477484470022995E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="261">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="258">
         <v>5.4047120362309041E-2</v>
       </c>
-      <c r="C8" s="288">
+      <c r="C8" s="285">
         <v>5.8390670526553903E-2</v>
       </c>
-      <c r="D8" s="288">
+      <c r="D8" s="285">
         <v>6.7042993622706673E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="261">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="258">
         <v>4.2221940070275271E-2</v>
       </c>
-      <c r="C9" s="288">
+      <c r="C9" s="285">
         <v>4.2186001880839742E-2</v>
       </c>
-      <c r="D9" s="288">
+      <c r="D9" s="285">
         <v>6.195106768475566E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="261">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="258">
         <v>0.16942351813928302</v>
       </c>
-      <c r="C10" s="288">
+      <c r="C10" s="285">
         <v>0.18320178489015551</v>
       </c>
-      <c r="D10" s="288">
+      <c r="D10" s="285">
         <v>0.16689544604871465</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="261">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="258">
         <v>6.8841433790538795E-2</v>
       </c>
-      <c r="C11" s="288">
+      <c r="C11" s="285">
         <v>6.3169877942027705E-2</v>
       </c>
-      <c r="D11" s="288">
+      <c r="D11" s="285">
         <v>6.4028071178455451E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="261">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="258">
         <v>4.5261625335049877E-2</v>
       </c>
-      <c r="C12" s="288">
+      <c r="C12" s="285">
         <v>4.2531115542269703E-2</v>
       </c>
-      <c r="D12" s="288">
+      <c r="D12" s="285">
         <v>3.8781371760180823E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="261">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="258">
         <v>5.4796753595044573E-2</v>
       </c>
-      <c r="C13" s="288">
+      <c r="C13" s="285">
         <v>4.8164037546593444E-2</v>
       </c>
-      <c r="D13" s="288">
+      <c r="D13" s="285">
         <v>5.1070512376563369E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="261">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="258">
         <v>0.10626050468534079</v>
       </c>
-      <c r="C14" s="288">
+      <c r="C14" s="285">
         <v>0.10319715281572864</v>
       </c>
-      <c r="D14" s="288">
+      <c r="D14" s="285">
         <v>9.9820375734093428E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="261">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="258">
         <v>4.9428908816578764E-2</v>
       </c>
-      <c r="C15" s="288">
+      <c r="C15" s="285">
         <v>5.508288473778547E-2</v>
       </c>
-      <c r="D15" s="288">
+      <c r="D15" s="285">
         <v>5.7695924459670554E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C16" s="285"/>
-      <c r="D16" s="285" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="282"/>
+      <c r="D16" s="282" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
         <v>141</v>
       </c>
